--- a/BackTest/2019-11-13 BackTest ABT.xlsx
+++ b/BackTest/2019-11-13 BackTest ABT.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>20</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-10</v>
+      </c>
       <c r="L12" t="n">
         <v>257.4</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>24</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>13.04347826086956</v>
+      </c>
       <c r="L13" t="n">
         <v>257.6</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>26</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>20</v>
+      </c>
       <c r="L14" t="n">
         <v>258.1</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>26</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>30.43478260869566</v>
+      </c>
       <c r="L15" t="n">
         <v>258.6</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>29</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
       <c r="L16" t="n">
         <v>259</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>34</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>52.38095238095239</v>
+      </c>
       <c r="L17" t="n">
         <v>259.5</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>38</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>60</v>
+      </c>
       <c r="L18" t="n">
         <v>261</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>46</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>7.142857142857142</v>
+      </c>
       <c r="L19" t="n">
         <v>261.7</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>53</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>25.71428571428571</v>
+      </c>
       <c r="L20" t="n">
         <v>262.6</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>53</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>33.33333333333333</v>
+      </c>
       <c r="L21" t="n">
         <v>263.5</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>53</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>24.13793103448276</v>
+      </c>
       <c r="L22" t="n">
         <v>264.6</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>60</v>
       </c>
       <c r="K23" t="n">
-        <v>3.333333333333333</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L23" t="n">
         <v>264.6</v>
@@ -1466,7 +1488,7 @@
         <v>65</v>
       </c>
       <c r="K24" t="n">
-        <v>12.5</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L24" t="n">
         <v>264.9</v>
@@ -1515,7 +1537,7 @@
         <v>65</v>
       </c>
       <c r="K25" t="n">
-        <v>12.5</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L25" t="n">
         <v>265.2</v>
@@ -1564,7 +1586,7 @@
         <v>67</v>
       </c>
       <c r="K26" t="n">
-        <v>12.5</v>
+        <v>-3.03030303030303</v>
       </c>
       <c r="L26" t="n">
         <v>265.6</v>
@@ -1613,7 +1635,7 @@
         <v>67</v>
       </c>
       <c r="K27" t="n">
-        <v>6.666666666666667</v>
+        <v>-17.24137931034483</v>
       </c>
       <c r="L27" t="n">
         <v>265.5</v>
@@ -1662,7 +1684,7 @@
         <v>69</v>
       </c>
       <c r="K28" t="n">
-        <v>21.42857142857143</v>
+        <v>21.73913043478261</v>
       </c>
       <c r="L28" t="n">
         <v>265.2</v>
@@ -1711,7 +1733,7 @@
         <v>70</v>
       </c>
       <c r="K29" t="n">
-        <v>19.29824561403509</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L29" t="n">
         <v>265.6</v>
@@ -1760,7 +1782,7 @@
         <v>70</v>
       </c>
       <c r="K30" t="n">
-        <v>11.53846153846154</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L30" t="n">
         <v>265.3</v>
@@ -1809,7 +1831,7 @@
         <v>70</v>
       </c>
       <c r="K31" t="n">
-        <v>11.53846153846154</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L31" t="n">
         <v>265</v>
@@ -1860,7 +1882,7 @@
         <v>70</v>
       </c>
       <c r="K32" t="n">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="L32" t="n">
         <v>264.7</v>
@@ -1911,7 +1933,7 @@
         <v>72</v>
       </c>
       <c r="K33" t="n">
-        <v>4.166666666666666</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L33" t="n">
         <v>264.9</v>
@@ -1962,7 +1984,7 @@
         <v>73</v>
       </c>
       <c r="K34" t="n">
-        <v>-2.127659574468085</v>
+        <v>-50</v>
       </c>
       <c r="L34" t="n">
         <v>264.5</v>
@@ -2013,7 +2035,7 @@
         <v>76</v>
       </c>
       <c r="K35" t="n">
-        <v>4</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L35" t="n">
         <v>264.4</v>
@@ -2064,7 +2086,7 @@
         <v>79</v>
       </c>
       <c r="K36" t="n">
-        <v>4</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L36" t="n">
         <v>264.2</v>
@@ -2115,7 +2137,7 @@
         <v>81</v>
       </c>
       <c r="K37" t="n">
-        <v>-10.63829787234043</v>
+        <v>-50</v>
       </c>
       <c r="L37" t="n">
         <v>263.8</v>
@@ -2166,7 +2188,7 @@
         <v>85</v>
       </c>
       <c r="K38" t="n">
-        <v>-27.65957446808511</v>
+        <v>-60</v>
       </c>
       <c r="L38" t="n">
         <v>262.8</v>
@@ -2217,7 +2239,7 @@
         <v>89</v>
       </c>
       <c r="K39" t="n">
-        <v>-2.325581395348837</v>
+        <v>-26.31578947368421</v>
       </c>
       <c r="L39" t="n">
         <v>262.3</v>
@@ -2268,7 +2290,7 @@
         <v>89</v>
       </c>
       <c r="K40" t="n">
-        <v>-22.22222222222222</v>
+        <v>-26.31578947368421</v>
       </c>
       <c r="L40" t="n">
         <v>261.8</v>
@@ -2319,7 +2341,7 @@
         <v>89</v>
       </c>
       <c r="K41" t="n">
-        <v>-22.22222222222222</v>
+        <v>-26.31578947368421</v>
       </c>
       <c r="L41" t="n">
         <v>261.3</v>
@@ -2370,7 +2392,7 @@
         <v>93</v>
       </c>
       <c r="K42" t="n">
-        <v>-10</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L42" t="n">
         <v>261.2</v>
@@ -2421,7 +2443,7 @@
         <v>99</v>
       </c>
       <c r="K43" t="n">
-        <v>-7.692307692307693</v>
+        <v>-15.38461538461539</v>
       </c>
       <c r="L43" t="n">
         <v>260.7</v>
@@ -2472,7 +2494,7 @@
         <v>99</v>
       </c>
       <c r="K44" t="n">
-        <v>-23.52941176470588</v>
+        <v>-30.43478260869566</v>
       </c>
       <c r="L44" t="n">
         <v>260.3</v>
@@ -2523,7 +2545,7 @@
         <v>105</v>
       </c>
       <c r="K45" t="n">
-        <v>-5</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L45" t="n">
         <v>260.2</v>
@@ -2574,7 +2596,7 @@
         <v>111</v>
       </c>
       <c r="K46" t="n">
-        <v>-13.63636363636363</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L46" t="n">
         <v>259.8</v>
@@ -2625,7 +2647,7 @@
         <v>114</v>
       </c>
       <c r="K47" t="n">
-        <v>-6.382978723404255</v>
+        <v>17.24137931034483</v>
       </c>
       <c r="L47" t="n">
         <v>259.9</v>
@@ -2676,7 +2698,7 @@
         <v>114</v>
       </c>
       <c r="K48" t="n">
-        <v>-11.11111111111111</v>
+        <v>4</v>
       </c>
       <c r="L48" t="n">
         <v>260.4</v>
@@ -2727,7 +2749,7 @@
         <v>114</v>
       </c>
       <c r="K49" t="n">
-        <v>-9.090909090909092</v>
+        <v>4</v>
       </c>
       <c r="L49" t="n">
         <v>260.5</v>
@@ -2778,7 +2800,7 @@
         <v>114</v>
       </c>
       <c r="K50" t="n">
-        <v>-9.090909090909092</v>
+        <v>4</v>
       </c>
       <c r="L50" t="n">
         <v>260.6</v>
@@ -2829,7 +2851,7 @@
         <v>116</v>
       </c>
       <c r="K51" t="n">
-        <v>-13.04347826086956</v>
+        <v>-21.73913043478261</v>
       </c>
       <c r="L51" t="n">
         <v>260.5</v>
@@ -2880,7 +2902,7 @@
         <v>117</v>
       </c>
       <c r="K52" t="n">
-        <v>-10.63829787234043</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L52" t="n">
         <v>260.1</v>
@@ -2931,7 +2953,7 @@
         <v>117</v>
       </c>
       <c r="K53" t="n">
-        <v>-6.666666666666667</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L53" t="n">
         <v>260.3</v>
@@ -2982,7 +3004,7 @@
         <v>117</v>
       </c>
       <c r="K54" t="n">
-        <v>-4.545454545454546</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L54" t="n">
         <v>260.5</v>
@@ -3033,7 +3055,7 @@
         <v>119</v>
       </c>
       <c r="K55" t="n">
-        <v>-6.976744186046512</v>
+        <v>50</v>
       </c>
       <c r="L55" t="n">
         <v>260.3</v>
@@ -3084,7 +3106,7 @@
         <v>121</v>
       </c>
       <c r="K56" t="n">
-        <v>-4.761904761904762</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L56" t="n">
         <v>260.5</v>
@@ -3135,7 +3157,7 @@
         <v>122</v>
       </c>
       <c r="K57" t="n">
-        <v>2.439024390243902</v>
+        <v>0</v>
       </c>
       <c r="L57" t="n">
         <v>260.5</v>
@@ -3186,7 +3208,7 @@
         <v>123</v>
       </c>
       <c r="K58" t="n">
-        <v>10.52631578947368</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L58" t="n">
         <v>260.4</v>
@@ -3237,7 +3259,7 @@
         <v>123</v>
       </c>
       <c r="K59" t="n">
-        <v>0</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L59" t="n">
         <v>260.3</v>
@@ -3288,7 +3310,7 @@
         <v>123</v>
       </c>
       <c r="K60" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L60" t="n">
         <v>260.2</v>
@@ -3390,7 +3412,7 @@
         <v>124</v>
       </c>
       <c r="K62" t="n">
-        <v>-16.12903225806452</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L62" t="n">
         <v>260.2</v>
@@ -3441,7 +3463,7 @@
         <v>124</v>
       </c>
       <c r="K63" t="n">
-        <v>4</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L63" t="n">
         <v>260.1</v>
@@ -3492,7 +3514,7 @@
         <v>126</v>
       </c>
       <c r="K64" t="n">
-        <v>-3.703703703703703</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L64" t="n">
         <v>259.8</v>
@@ -3543,7 +3565,7 @@
         <v>126</v>
       </c>
       <c r="K65" t="n">
-        <v>-33.33333333333333</v>
+        <v>-60</v>
       </c>
       <c r="L65" t="n">
         <v>259.3</v>
@@ -3594,7 +3616,7 @@
         <v>131</v>
       </c>
       <c r="K66" t="n">
-        <v>20</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L66" t="n">
         <v>259.5</v>
@@ -3645,7 +3667,7 @@
         <v>137</v>
       </c>
       <c r="K67" t="n">
-        <v>-21.73913043478261</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L67" t="n">
         <v>259</v>
@@ -3696,7 +3718,7 @@
         <v>137</v>
       </c>
       <c r="K68" t="n">
-        <v>-21.73913043478261</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L68" t="n">
         <v>258.6</v>
@@ -3747,7 +3769,7 @@
         <v>138</v>
       </c>
       <c r="K69" t="n">
-        <v>-25</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L69" t="n">
         <v>258.1</v>
@@ -3798,7 +3820,7 @@
         <v>138</v>
       </c>
       <c r="K70" t="n">
-        <v>-25</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L70" t="n">
         <v>257.6</v>
@@ -3849,7 +3871,7 @@
         <v>139</v>
       </c>
       <c r="K71" t="n">
-        <v>-21.73913043478261</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L71" t="n">
         <v>257</v>
@@ -3900,7 +3922,7 @@
         <v>139</v>
       </c>
       <c r="K72" t="n">
-        <v>-27.27272727272727</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L72" t="n">
         <v>256.5</v>
@@ -3951,7 +3973,7 @@
         <v>140</v>
       </c>
       <c r="K73" t="n">
-        <v>-30.43478260869566</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L73" t="n">
         <v>255.9</v>
@@ -4002,7 +4024,7 @@
         <v>145</v>
       </c>
       <c r="K74" t="n">
-        <v>-42.85714285714285</v>
+        <v>-47.36842105263158</v>
       </c>
       <c r="L74" t="n">
         <v>255</v>
@@ -4053,7 +4075,7 @@
         <v>148</v>
       </c>
       <c r="K75" t="n">
-        <v>-58.62068965517241</v>
+        <v>-100</v>
       </c>
       <c r="L75" t="n">
         <v>253.8</v>
@@ -4104,7 +4126,7 @@
         <v>152</v>
       </c>
       <c r="K76" t="n">
-        <v>-61.29032258064516</v>
+        <v>-100</v>
       </c>
       <c r="L76" t="n">
         <v>251.7</v>
@@ -4155,7 +4177,7 @@
         <v>153</v>
       </c>
       <c r="K77" t="n">
-        <v>-61.29032258064516</v>
+        <v>-87.5</v>
       </c>
       <c r="L77" t="n">
         <v>250.3</v>
@@ -4206,7 +4228,7 @@
         <v>155</v>
       </c>
       <c r="K78" t="n">
-        <v>-62.5</v>
+        <v>-88.23529411764706</v>
       </c>
       <c r="L78" t="n">
         <v>248.7</v>
@@ -4257,7 +4279,7 @@
         <v>159</v>
       </c>
       <c r="K79" t="n">
-        <v>-44.44444444444444</v>
+        <v>-52.38095238095239</v>
       </c>
       <c r="L79" t="n">
         <v>247.6</v>
@@ -4308,7 +4330,7 @@
         <v>159</v>
       </c>
       <c r="K80" t="n">
-        <v>-44.44444444444444</v>
+        <v>-50</v>
       </c>
       <c r="L80" t="n">
         <v>246.5</v>
@@ -4359,7 +4381,7 @@
         <v>161</v>
       </c>
       <c r="K81" t="n">
-        <v>-36.84210526315789</v>
+        <v>-36.36363636363637</v>
       </c>
       <c r="L81" t="n">
         <v>245.7</v>
@@ -4410,7 +4432,7 @@
         <v>161</v>
       </c>
       <c r="K82" t="n">
-        <v>-35.13513513513514</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L82" t="n">
         <v>244.9</v>
@@ -4461,7 +4483,7 @@
         <v>163</v>
       </c>
       <c r="K83" t="n">
-        <v>-28.2051282051282</v>
+        <v>0</v>
       </c>
       <c r="L83" t="n">
         <v>244.4</v>
@@ -4512,7 +4534,7 @@
         <v>164</v>
       </c>
       <c r="K84" t="n">
-        <v>-26.31578947368421</v>
+        <v>12.5</v>
       </c>
       <c r="L84" t="n">
         <v>244.3</v>
@@ -4563,7 +4585,7 @@
         <v>165</v>
       </c>
       <c r="K85" t="n">
-        <v>-23.07692307692308</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="L85" t="n">
         <v>244.6</v>
@@ -4614,7 +4636,7 @@
         <v>166</v>
       </c>
       <c r="K86" t="n">
-        <v>-37.14285714285715</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="L86" t="n">
         <v>245.4</v>
@@ -4665,7 +4687,7 @@
         <v>166</v>
       </c>
       <c r="K87" t="n">
-        <v>-24.13793103448276</v>
+        <v>81.81818181818183</v>
       </c>
       <c r="L87" t="n">
         <v>246.1</v>
@@ -4716,7 +4738,7 @@
         <v>166</v>
       </c>
       <c r="K88" t="n">
-        <v>-24.13793103448276</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L88" t="n">
         <v>247</v>
@@ -4767,7 +4789,7 @@
         <v>167</v>
       </c>
       <c r="K89" t="n">
-        <v>-17.24137931034483</v>
+        <v>75</v>
       </c>
       <c r="L89" t="n">
         <v>247.6</v>
@@ -4818,7 +4840,7 @@
         <v>168</v>
       </c>
       <c r="K90" t="n">
-        <v>-20</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L90" t="n">
         <v>248.1</v>
@@ -4869,7 +4891,7 @@
         <v>168</v>
       </c>
       <c r="K91" t="n">
-        <v>-17.24137931034483</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L91" t="n">
         <v>248.4</v>
@@ -4971,7 +4993,7 @@
         <v>171</v>
       </c>
       <c r="K93" t="n">
-        <v>-22.58064516129032</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L93" t="n">
         <v>248.2</v>
@@ -5022,7 +5044,7 @@
         <v>171</v>
       </c>
       <c r="K94" t="n">
-        <v>-7.692307692307693</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L94" t="n">
         <v>248.1</v>
@@ -5073,7 +5095,7 @@
         <v>174</v>
       </c>
       <c r="K95" t="n">
-        <v>15.38461538461539</v>
+        <v>0</v>
       </c>
       <c r="L95" t="n">
         <v>248.2</v>
@@ -5124,7 +5146,7 @@
         <v>176</v>
       </c>
       <c r="K96" t="n">
-        <v>25</v>
+        <v>-20</v>
       </c>
       <c r="L96" t="n">
         <v>248</v>
@@ -5175,7 +5197,7 @@
         <v>177</v>
       </c>
       <c r="K97" t="n">
-        <v>25</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L97" t="n">
         <v>247.9</v>
@@ -5226,7 +5248,7 @@
         <v>177</v>
       </c>
       <c r="K98" t="n">
-        <v>36.36363636363637</v>
+        <v>-20</v>
       </c>
       <c r="L98" t="n">
         <v>247.8</v>
@@ -5277,7 +5299,7 @@
         <v>179</v>
       </c>
       <c r="K99" t="n">
-        <v>10</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L99" t="n">
         <v>247.4</v>
@@ -5328,7 +5350,7 @@
         <v>181</v>
       </c>
       <c r="K100" t="n">
-        <v>18.18181818181818</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L100" t="n">
         <v>247.3</v>
@@ -5379,7 +5401,7 @@
         <v>183</v>
       </c>
       <c r="K101" t="n">
-        <v>18.18181818181818</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L101" t="n">
         <v>247.4</v>
@@ -5481,7 +5503,7 @@
         <v>188</v>
       </c>
       <c r="K103" t="n">
-        <v>-4</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L103" t="n">
         <v>247.5</v>
@@ -5532,7 +5554,7 @@
         <v>191</v>
       </c>
       <c r="K104" t="n">
-        <v>11.11111111111111</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L104" t="n">
         <v>247.9</v>
@@ -5583,7 +5605,7 @@
         <v>191</v>
       </c>
       <c r="K105" t="n">
-        <v>7.692307692307693</v>
+        <v>20</v>
       </c>
       <c r="L105" t="n">
         <v>248</v>
@@ -5634,7 +5656,7 @@
         <v>192</v>
       </c>
       <c r="K106" t="n">
-        <v>0</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L106" t="n">
         <v>248.2</v>
@@ -5685,7 +5707,7 @@
         <v>193</v>
       </c>
       <c r="K107" t="n">
-        <v>-3.703703703703703</v>
+        <v>0</v>
       </c>
       <c r="L107" t="n">
         <v>248.2</v>
@@ -5736,7 +5758,7 @@
         <v>195</v>
       </c>
       <c r="K108" t="n">
-        <v>-10.3448275862069</v>
+        <v>0</v>
       </c>
       <c r="L108" t="n">
         <v>248</v>
@@ -5787,7 +5809,7 @@
         <v>199</v>
       </c>
       <c r="K109" t="n">
-        <v>-25</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L109" t="n">
         <v>247.6</v>
@@ -5838,7 +5860,7 @@
         <v>205</v>
       </c>
       <c r="K110" t="n">
-        <v>-2.702702702702703</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L110" t="n">
         <v>247.6</v>
@@ -5889,7 +5911,7 @@
         <v>208</v>
       </c>
       <c r="K111" t="n">
-        <v>-10</v>
+        <v>-4.761904761904762</v>
       </c>
       <c r="L111" t="n">
         <v>247.1</v>
@@ -5940,7 +5962,7 @@
         <v>209</v>
       </c>
       <c r="K112" t="n">
-        <v>-5.263157894736842</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L112" t="n">
         <v>246.9</v>
@@ -5991,7 +6013,7 @@
         <v>211</v>
       </c>
       <c r="K113" t="n">
-        <v>-10</v>
+        <v>-40</v>
       </c>
       <c r="L113" t="n">
         <v>246.4</v>
@@ -6042,7 +6064,7 @@
         <v>212</v>
       </c>
       <c r="K114" t="n">
-        <v>-12.19512195121951</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L114" t="n">
         <v>245.5</v>
@@ -6093,7 +6115,7 @@
         <v>215</v>
       </c>
       <c r="K115" t="n">
-        <v>-26.82926829268293</v>
+        <v>-47.82608695652174</v>
       </c>
       <c r="L115" t="n">
         <v>244.3</v>
@@ -6144,7 +6166,7 @@
         <v>215</v>
       </c>
       <c r="K116" t="n">
-        <v>-23.07692307692308</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L116" t="n">
         <v>243.2</v>
@@ -6195,7 +6217,7 @@
         <v>221</v>
       </c>
       <c r="K117" t="n">
-        <v>-9.090909090909092</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L117" t="n">
         <v>242.8</v>
@@ -6246,7 +6268,7 @@
         <v>224</v>
       </c>
       <c r="K118" t="n">
-        <v>-14.8936170212766</v>
+        <v>-4</v>
       </c>
       <c r="L118" t="n">
         <v>242.3</v>
@@ -6297,7 +6319,7 @@
         <v>227</v>
       </c>
       <c r="K119" t="n">
-        <v>-16.66666666666666</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L119" t="n">
         <v>241.9</v>
@@ -6348,7 +6370,7 @@
         <v>229</v>
       </c>
       <c r="K120" t="n">
-        <v>-25</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L120" t="n">
         <v>240.7</v>
@@ -6399,7 +6421,7 @@
         <v>229</v>
       </c>
       <c r="K121" t="n">
-        <v>-30.43478260869566</v>
+        <v>-40</v>
       </c>
       <c r="L121" t="n">
         <v>239.8</v>
@@ -6450,7 +6472,7 @@
         <v>229</v>
       </c>
       <c r="K122" t="n">
-        <v>-23.80952380952381</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L122" t="n">
         <v>239</v>
@@ -6501,7 +6523,7 @@
         <v>233</v>
       </c>
       <c r="K123" t="n">
-        <v>-33.33333333333333</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L123" t="n">
         <v>238</v>
@@ -6552,7 +6574,7 @@
         <v>235</v>
       </c>
       <c r="K124" t="n">
-        <v>-45.45454545454545</v>
+        <v>-40</v>
       </c>
       <c r="L124" t="n">
         <v>236.9</v>
@@ -6603,7 +6625,7 @@
         <v>235</v>
       </c>
       <c r="K125" t="n">
-        <v>-45.45454545454545</v>
+        <v>-40</v>
       </c>
       <c r="L125" t="n">
         <v>236.1</v>
@@ -6654,7 +6676,7 @@
         <v>235</v>
       </c>
       <c r="K126" t="n">
-        <v>-44.18604651162791</v>
+        <v>-100</v>
       </c>
       <c r="L126" t="n">
         <v>235.3</v>
@@ -6705,7 +6727,7 @@
         <v>235</v>
       </c>
       <c r="K127" t="n">
-        <v>-42.85714285714285</v>
+        <v>-100</v>
       </c>
       <c r="L127" t="n">
         <v>233.9</v>
@@ -6756,7 +6778,7 @@
         <v>237</v>
       </c>
       <c r="K128" t="n">
-        <v>-42.85714285714285</v>
+        <v>-100</v>
       </c>
       <c r="L128" t="n">
         <v>232.6</v>
@@ -6807,7 +6829,7 @@
         <v>237</v>
       </c>
       <c r="K129" t="n">
-        <v>-36.84210526315789</v>
+        <v>-100</v>
       </c>
       <c r="L129" t="n">
         <v>231.6</v>
@@ -6858,7 +6880,7 @@
         <v>237</v>
       </c>
       <c r="K130" t="n">
-        <v>-62.5</v>
+        <v>-100</v>
       </c>
       <c r="L130" t="n">
         <v>230.8</v>
@@ -6909,7 +6931,7 @@
         <v>239</v>
       </c>
       <c r="K131" t="n">
-        <v>-61.29032258064516</v>
+        <v>-100</v>
       </c>
       <c r="L131" t="n">
         <v>229.8</v>
@@ -6960,7 +6982,7 @@
         <v>240</v>
       </c>
       <c r="K132" t="n">
-        <v>-54.83870967741935</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L132" t="n">
         <v>228.9</v>
@@ -7011,7 +7033,7 @@
         <v>240</v>
       </c>
       <c r="K133" t="n">
-        <v>-51.72413793103448</v>
+        <v>-60</v>
       </c>
       <c r="L133" t="n">
         <v>228.4</v>
@@ -7062,7 +7084,7 @@
         <v>242</v>
       </c>
       <c r="K134" t="n">
-        <v>-40</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L134" t="n">
         <v>228.3</v>
@@ -7113,7 +7135,7 @@
         <v>245</v>
       </c>
       <c r="K135" t="n">
-        <v>-20</v>
+        <v>20</v>
       </c>
       <c r="L135" t="n">
         <v>228.5</v>
@@ -7164,7 +7186,7 @@
         <v>249</v>
       </c>
       <c r="K136" t="n">
-        <v>-29.41176470588236</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L136" t="n">
         <v>228.3</v>
@@ -7215,7 +7237,7 @@
         <v>251</v>
       </c>
       <c r="K137" t="n">
-        <v>-46.66666666666666</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L137" t="n">
         <v>228.3</v>
@@ -7266,7 +7288,7 @@
         <v>256</v>
       </c>
       <c r="K138" t="n">
-        <v>-50</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L138" t="n">
         <v>228</v>
@@ -7317,7 +7339,7 @@
         <v>262</v>
       </c>
       <c r="K139" t="n">
-        <v>-20</v>
+        <v>12</v>
       </c>
       <c r="L139" t="n">
         <v>228.3</v>
@@ -7368,7 +7390,7 @@
         <v>262</v>
       </c>
       <c r="K140" t="n">
-        <v>-15.15151515151515</v>
+        <v>21.73913043478261</v>
       </c>
       <c r="L140" t="n">
         <v>228.6</v>
@@ -7419,7 +7441,7 @@
         <v>263</v>
       </c>
       <c r="K141" t="n">
-        <v>-11.76470588235294</v>
+        <v>21.73913043478261</v>
       </c>
       <c r="L141" t="n">
         <v>229.2</v>
@@ -7470,7 +7492,7 @@
         <v>267</v>
       </c>
       <c r="K142" t="n">
-        <v>-21.05263157894737</v>
+        <v>3.703703703703703</v>
       </c>
       <c r="L142" t="n">
         <v>229.3</v>
@@ -7521,7 +7543,7 @@
         <v>268</v>
       </c>
       <c r="K143" t="n">
-        <v>-8.571428571428571</v>
+        <v>0</v>
       </c>
       <c r="L143" t="n">
         <v>229.5</v>
@@ -7572,7 +7594,7 @@
         <v>272</v>
       </c>
       <c r="K144" t="n">
-        <v>-13.51351351351351</v>
+        <v>-25.92592592592592</v>
       </c>
       <c r="L144" t="n">
         <v>229.1</v>
@@ -7623,7 +7645,7 @@
         <v>283</v>
       </c>
       <c r="K145" t="n">
-        <v>12.5</v>
+        <v>23.52941176470588</v>
       </c>
       <c r="L145" t="n">
         <v>229.5</v>
@@ -7674,7 +7696,7 @@
         <v>285</v>
       </c>
       <c r="K146" t="n">
-        <v>16</v>
+        <v>23.52941176470588</v>
       </c>
       <c r="L146" t="n">
         <v>230.5</v>
@@ -7725,7 +7747,7 @@
         <v>286</v>
       </c>
       <c r="K147" t="n">
-        <v>17.64705882352941</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="L147" t="n">
         <v>231.4</v>
@@ -7776,7 +7798,7 @@
         <v>287</v>
       </c>
       <c r="K148" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="L148" t="n">
         <v>232.7</v>
@@ -7827,7 +7849,7 @@
         <v>289</v>
       </c>
       <c r="K149" t="n">
-        <v>23.07692307692308</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L149" t="n">
         <v>233.6</v>
@@ -7878,7 +7900,7 @@
         <v>290</v>
       </c>
       <c r="K150" t="n">
-        <v>20.75471698113208</v>
+        <v>25.92592592592592</v>
       </c>
       <c r="L150" t="n">
         <v>234.4</v>
@@ -7929,7 +7951,7 @@
         <v>290</v>
       </c>
       <c r="K151" t="n">
-        <v>25.49019607843137</v>
+        <v>47.82608695652174</v>
       </c>
       <c r="L151" t="n">
         <v>235.1</v>
@@ -7980,7 +8002,7 @@
         <v>292</v>
       </c>
       <c r="K152" t="n">
-        <v>26.92307692307692</v>
+        <v>50</v>
       </c>
       <c r="L152" t="n">
         <v>236.4</v>
@@ -8031,7 +8053,7 @@
         <v>293</v>
       </c>
       <c r="K153" t="n">
-        <v>24.52830188679245</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L153" t="n">
         <v>237.5</v>
@@ -8082,7 +8104,7 @@
         <v>298</v>
       </c>
       <c r="K154" t="n">
-        <v>28.57142857142857</v>
+        <v>60</v>
       </c>
       <c r="L154" t="n">
         <v>239.5</v>
@@ -8133,7 +8155,7 @@
         <v>298</v>
       </c>
       <c r="K155" t="n">
-        <v>24.52830188679245</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="L155" t="n">
         <v>240.4</v>
@@ -8184,7 +8206,7 @@
         <v>299</v>
       </c>
       <c r="K156" t="n">
-        <v>36</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="L156" t="n">
         <v>241.2</v>
@@ -8235,7 +8257,7 @@
         <v>308</v>
       </c>
       <c r="K157" t="n">
-        <v>43.85964912280701</v>
+        <v>80.95238095238095</v>
       </c>
       <c r="L157" t="n">
         <v>242.8</v>
@@ -8286,7 +8308,7 @@
         <v>309</v>
       </c>
       <c r="K158" t="n">
-        <v>54.71698113207547</v>
+        <v>70</v>
       </c>
       <c r="L158" t="n">
         <v>244.4</v>
@@ -8337,7 +8359,7 @@
         <v>309</v>
       </c>
       <c r="K159" t="n">
-        <v>48.93617021276596</v>
+        <v>78.94736842105263</v>
       </c>
       <c r="L159" t="n">
         <v>245.8</v>
@@ -8388,7 +8410,7 @@
         <v>312</v>
       </c>
       <c r="K160" t="n">
-        <v>40</v>
+        <v>54.54545454545454</v>
       </c>
       <c r="L160" t="n">
         <v>247</v>
@@ -8439,7 +8461,7 @@
         <v>316</v>
       </c>
       <c r="K161" t="n">
-        <v>43.39622641509434</v>
+        <v>58.33333333333334</v>
       </c>
       <c r="L161" t="n">
         <v>248.6</v>
@@ -8490,7 +8512,7 @@
         <v>320</v>
       </c>
       <c r="K162" t="n">
-        <v>58.49056603773585</v>
+        <v>70.37037037037037</v>
       </c>
       <c r="L162" t="n">
         <v>250.4</v>
@@ -8541,7 +8563,7 @@
         <v>323</v>
       </c>
       <c r="K163" t="n">
-        <v>49.09090909090909</v>
+        <v>44</v>
       </c>
       <c r="L163" t="n">
         <v>252</v>
@@ -8592,7 +8614,7 @@
         <v>323</v>
       </c>
       <c r="K164" t="n">
-        <v>60.78431372549019</v>
+        <v>44</v>
       </c>
       <c r="L164" t="n">
         <v>253.1</v>
@@ -8643,7 +8665,7 @@
         <v>323</v>
       </c>
       <c r="K165" t="n">
-        <v>50</v>
+        <v>41.66666666666667</v>
       </c>
       <c r="L165" t="n">
         <v>254.2</v>
@@ -8694,7 +8716,7 @@
         <v>324</v>
       </c>
       <c r="K166" t="n">
-        <v>43.58974358974359</v>
+        <v>0</v>
       </c>
       <c r="L166" t="n">
         <v>255.1</v>
@@ -8745,7 +8767,7 @@
         <v>325</v>
       </c>
       <c r="K167" t="n">
-        <v>43.58974358974359</v>
+        <v>12.5</v>
       </c>
       <c r="L167" t="n">
         <v>255.2</v>
@@ -8796,7 +8818,7 @@
         <v>325</v>
       </c>
       <c r="K168" t="n">
-        <v>47.36842105263158</v>
+        <v>12.5</v>
       </c>
       <c r="L168" t="n">
         <v>255.4</v>
@@ -8847,7 +8869,7 @@
         <v>327</v>
       </c>
       <c r="K169" t="n">
-        <v>36.84210526315789</v>
+        <v>20</v>
       </c>
       <c r="L169" t="n">
         <v>255.4</v>
@@ -8898,7 +8920,7 @@
         <v>332</v>
       </c>
       <c r="K170" t="n">
-        <v>47.61904761904761</v>
+        <v>25</v>
       </c>
       <c r="L170" t="n">
         <v>256.2</v>
@@ -8949,7 +8971,7 @@
         <v>346</v>
       </c>
       <c r="K171" t="n">
-        <v>10.71428571428571</v>
+        <v>-53.84615384615385</v>
       </c>
       <c r="L171" t="n">
         <v>255.2</v>
@@ -9000,7 +9022,7 @@
         <v>352</v>
       </c>
       <c r="K172" t="n">
-        <v>16.66666666666666</v>
+        <v>-17.24137931034483</v>
       </c>
       <c r="L172" t="n">
         <v>254.4</v>
@@ -9051,7 +9073,7 @@
         <v>352</v>
       </c>
       <c r="K173" t="n">
-        <v>18.64406779661017</v>
+        <v>-17.24137931034483</v>
       </c>
       <c r="L173" t="n">
         <v>253.9</v>
@@ -9102,7 +9124,7 @@
         <v>353</v>
       </c>
       <c r="K174" t="n">
-        <v>12.72727272727273</v>
+        <v>-13.33333333333333</v>
       </c>
       <c r="L174" t="n">
         <v>253.5</v>
@@ -9153,7 +9175,7 @@
         <v>355</v>
       </c>
       <c r="K175" t="n">
-        <v>8.771929824561402</v>
+        <v>-16.12903225806452</v>
       </c>
       <c r="L175" t="n">
         <v>252.9</v>
@@ -9204,7 +9226,7 @@
         <v>357</v>
       </c>
       <c r="K176" t="n">
-        <v>3.448275862068965</v>
+        <v>-25</v>
       </c>
       <c r="L176" t="n">
         <v>252.2</v>
@@ -9255,7 +9277,7 @@
         <v>361</v>
       </c>
       <c r="K177" t="n">
-        <v>-5.660377358490567</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L177" t="n">
         <v>251.8</v>
@@ -9306,7 +9328,7 @@
         <v>364</v>
       </c>
       <c r="K178" t="n">
-        <v>-9.090909090909092</v>
+        <v>-13.51351351351351</v>
       </c>
       <c r="L178" t="n">
         <v>251.1</v>
@@ -9357,7 +9379,7 @@
         <v>365</v>
       </c>
       <c r="K179" t="n">
-        <v>-10.71428571428571</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L179" t="n">
         <v>250.5</v>
@@ -9408,7 +9430,7 @@
         <v>365</v>
       </c>
       <c r="K180" t="n">
-        <v>-5.660377358490567</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L180" t="n">
         <v>249.4</v>
@@ -9459,7 +9481,7 @@
         <v>373</v>
       </c>
       <c r="K181" t="n">
-        <v>1.754385964912281</v>
+        <v>23.80952380952381</v>
       </c>
       <c r="L181" t="n">
         <v>250.5</v>
@@ -9510,7 +9532,7 @@
         <v>382</v>
       </c>
       <c r="K182" t="n">
-        <v>-19.35483870967742</v>
+        <v>-13.33333333333333</v>
       </c>
       <c r="L182" t="n">
         <v>250.1</v>
@@ -9561,7 +9583,7 @@
         <v>384</v>
       </c>
       <c r="K183" t="n">
-        <v>-11.47540983606557</v>
+        <v>-9.67741935483871</v>
       </c>
       <c r="L183" t="n">
         <v>249.9</v>
@@ -9612,7 +9634,7 @@
         <v>387</v>
       </c>
       <c r="K184" t="n">
-        <v>-6.25</v>
+        <v>6.25</v>
       </c>
       <c r="L184" t="n">
         <v>249.9</v>
@@ -9663,7 +9685,7 @@
         <v>387</v>
       </c>
       <c r="K185" t="n">
-        <v>-6.25</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="L185" t="n">
         <v>250.1</v>
@@ -9714,7 +9736,7 @@
         <v>388</v>
       </c>
       <c r="K186" t="n">
-        <v>-6.25</v>
+        <v>-3.703703703703703</v>
       </c>
       <c r="L186" t="n">
         <v>250.4</v>
@@ -9765,7 +9787,7 @@
         <v>392</v>
       </c>
       <c r="K187" t="n">
-        <v>-1.492537313432836</v>
+        <v>21.42857142857143</v>
       </c>
       <c r="L187" t="n">
         <v>250.7</v>
@@ -9816,7 +9838,7 @@
         <v>393</v>
       </c>
       <c r="K188" t="n">
-        <v>0</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L188" t="n">
         <v>251.4</v>
@@ -9867,7 +9889,7 @@
         <v>394</v>
       </c>
       <c r="K189" t="n">
-        <v>1.492537313432836</v>
+        <v>24.13793103448276</v>
       </c>
       <c r="L189" t="n">
         <v>252.1</v>
@@ -9918,7 +9940,7 @@
         <v>395</v>
       </c>
       <c r="K190" t="n">
-        <v>-4.761904761904762</v>
+        <v>0</v>
       </c>
       <c r="L190" t="n">
         <v>252.9</v>
@@ -9969,7 +9991,7 @@
         <v>396</v>
       </c>
       <c r="K191" t="n">
-        <v>20</v>
+        <v>57.14285714285714</v>
       </c>
       <c r="L191" t="n">
         <v>252.8</v>
@@ -10020,7 +10042,7 @@
         <v>403</v>
       </c>
       <c r="K192" t="n">
-        <v>21.56862745098039</v>
+        <v>68.42105263157895</v>
       </c>
       <c r="L192" t="n">
         <v>254.3</v>
@@ -10071,7 +10093,7 @@
         <v>411</v>
       </c>
       <c r="K193" t="n">
-        <v>5.084745762711865</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="L193" t="n">
         <v>254.8</v>
@@ -10122,7 +10144,7 @@
         <v>414</v>
       </c>
       <c r="K194" t="n">
-        <v>-1.639344262295082</v>
+        <v>-3.703703703703703</v>
       </c>
       <c r="L194" t="n">
         <v>254.7</v>
@@ -10173,7 +10195,7 @@
         <v>414</v>
       </c>
       <c r="K195" t="n">
-        <v>1.694915254237288</v>
+        <v>0</v>
       </c>
       <c r="L195" t="n">
         <v>254.6</v>
@@ -10224,7 +10246,7 @@
         <v>417</v>
       </c>
       <c r="K196" t="n">
-        <v>0</v>
+        <v>-28</v>
       </c>
       <c r="L196" t="n">
         <v>254.3</v>
@@ -10275,7 +10297,7 @@
         <v>423</v>
       </c>
       <c r="K197" t="n">
-        <v>-16.12903225806452</v>
+        <v>-46.66666666666666</v>
       </c>
       <c r="L197" t="n">
         <v>253</v>
@@ -10326,7 +10348,7 @@
         <v>434</v>
       </c>
       <c r="K198" t="n">
-        <v>5.714285714285714</v>
+        <v>-5</v>
       </c>
       <c r="L198" t="n">
         <v>252.7</v>
@@ -10377,7 +10399,7 @@
         <v>437</v>
       </c>
       <c r="K199" t="n">
-        <v>2.777777777777778</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L199" t="n">
         <v>252.2</v>
@@ -10428,7 +10450,7 @@
         <v>443</v>
       </c>
       <c r="K200" t="n">
-        <v>10.25641025641026</v>
+        <v>2.127659574468085</v>
       </c>
       <c r="L200" t="n">
         <v>252.2</v>
@@ -10479,7 +10501,7 @@
         <v>445</v>
       </c>
       <c r="K201" t="n">
-        <v>2.777777777777778</v>
+        <v>-9.523809523809524</v>
       </c>
       <c r="L201" t="n">
         <v>252.5</v>
@@ -10530,7 +10552,7 @@
         <v>445</v>
       </c>
       <c r="K202" t="n">
-        <v>17.46031746031746</v>
+        <v>11.76470588235294</v>
       </c>
       <c r="L202" t="n">
         <v>252.1</v>
@@ -10581,7 +10603,7 @@
         <v>445</v>
       </c>
       <c r="K203" t="n">
-        <v>14.75409836065574</v>
+        <v>22.58064516129032</v>
       </c>
       <c r="L203" t="n">
         <v>252.5</v>
@@ -10632,7 +10654,7 @@
         <v>447</v>
       </c>
       <c r="K204" t="n">
-        <v>13.33333333333333</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L204" t="n">
         <v>253.4</v>
@@ -10683,7 +10705,7 @@
         <v>447</v>
       </c>
       <c r="K205" t="n">
-        <v>13.33333333333333</v>
+        <v>40</v>
       </c>
       <c r="L205" t="n">
         <v>254.3</v>
@@ -10734,7 +10756,7 @@
         <v>447</v>
       </c>
       <c r="K206" t="n">
-        <v>15.25423728813559</v>
+        <v>75</v>
       </c>
       <c r="L206" t="n">
         <v>255.5</v>
@@ -10785,7 +10807,7 @@
         <v>447</v>
       </c>
       <c r="K207" t="n">
-        <v>9.090909090909092</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="L207" t="n">
         <v>257.3</v>
@@ -10836,7 +10858,7 @@
         <v>447</v>
       </c>
       <c r="K208" t="n">
-        <v>7.407407407407407</v>
+        <v>100</v>
       </c>
       <c r="L208" t="n">
         <v>258</v>
@@ -10887,7 +10909,7 @@
         <v>447</v>
       </c>
       <c r="K209" t="n">
-        <v>9.433962264150944</v>
+        <v>100</v>
       </c>
       <c r="L209" t="n">
         <v>259</v>
@@ -10938,7 +10960,7 @@
         <v>452</v>
       </c>
       <c r="K210" t="n">
-        <v>15.78947368421053</v>
+        <v>100</v>
       </c>
       <c r="L210" t="n">
         <v>259.9</v>
@@ -10989,7 +11011,7 @@
         <v>466</v>
       </c>
       <c r="K211" t="n">
-        <v>-5.714285714285714</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L211" t="n">
         <v>259.2</v>
@@ -11040,7 +11062,7 @@
         <v>480</v>
       </c>
       <c r="K212" t="n">
-        <v>3.896103896103896</v>
+        <v>20</v>
       </c>
       <c r="L212" t="n">
         <v>259.9</v>
@@ -11091,7 +11113,7 @@
         <v>483</v>
       </c>
       <c r="K213" t="n">
-        <v>19.44444444444445</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="L213" t="n">
         <v>260.9</v>
@@ -11142,7 +11164,7 @@
         <v>484</v>
       </c>
       <c r="K214" t="n">
-        <v>22.85714285714286</v>
+        <v>18.91891891891892</v>
       </c>
       <c r="L214" t="n">
         <v>261.6</v>
@@ -11193,7 +11215,7 @@
         <v>487</v>
       </c>
       <c r="K215" t="n">
-        <v>17.80821917808219</v>
+        <v>10</v>
       </c>
       <c r="L215" t="n">
         <v>262</v>
@@ -11244,7 +11266,7 @@
         <v>501</v>
       </c>
       <c r="K216" t="n">
-        <v>2.380952380952381</v>
+        <v>-18.51851851851852</v>
       </c>
       <c r="L216" t="n">
         <v>261</v>
@@ -11295,7 +11317,7 @@
         <v>514</v>
       </c>
       <c r="K217" t="n">
-        <v>23.07692307692308</v>
+        <v>4.477611940298507</v>
       </c>
       <c r="L217" t="n">
         <v>261.3</v>
@@ -11346,7 +11368,7 @@
         <v>517</v>
       </c>
       <c r="K218" t="n">
-        <v>8.433734939759036</v>
+        <v>0</v>
       </c>
       <c r="L218" t="n">
         <v>261.3</v>
@@ -11397,7 +11419,7 @@
         <v>518</v>
       </c>
       <c r="K219" t="n">
-        <v>13.58024691358025</v>
+        <v>-6.060606060606061</v>
       </c>
       <c r="L219" t="n">
         <v>261.4</v>
@@ -11448,7 +11470,7 @@
         <v>520</v>
       </c>
       <c r="K220" t="n">
-        <v>3.896103896103896</v>
+        <v>14.81481481481481</v>
       </c>
       <c r="L220" t="n">
         <v>260.8</v>
@@ -11499,7 +11521,7 @@
         <v>524</v>
       </c>
       <c r="K221" t="n">
-        <v>6.329113924050633</v>
+        <v>-4.545454545454546</v>
       </c>
       <c r="L221" t="n">
         <v>262</v>
@@ -11550,7 +11572,7 @@
         <v>525</v>
       </c>
       <c r="K222" t="n">
-        <v>7.5</v>
+        <v>-9.523809523809524</v>
       </c>
       <c r="L222" t="n">
         <v>261.9</v>
@@ -11601,7 +11623,7 @@
         <v>526</v>
       </c>
       <c r="K223" t="n">
-        <v>6.172839506172839</v>
+        <v>-9.523809523809524</v>
       </c>
       <c r="L223" t="n">
         <v>261.4</v>
@@ -11652,7 +11674,7 @@
         <v>530</v>
       </c>
       <c r="K224" t="n">
-        <v>8.433734939759036</v>
+        <v>6.976744186046512</v>
       </c>
       <c r="L224" t="n">
         <v>261.4</v>
@@ -11703,7 +11725,7 @@
         <v>534</v>
       </c>
       <c r="K225" t="n">
-        <v>3.448275862068965</v>
+        <v>39.39393939393939</v>
       </c>
       <c r="L225" t="n">
         <v>261.3</v>
@@ -11754,7 +11776,7 @@
         <v>536</v>
       </c>
       <c r="K226" t="n">
-        <v>1.123595505617978</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L226" t="n">
         <v>262.4</v>
@@ -11805,7 +11827,7 @@
         <v>538</v>
       </c>
       <c r="K227" t="n">
-        <v>-1.098901098901099</v>
+        <v>-4.761904761904762</v>
       </c>
       <c r="L227" t="n">
         <v>262</v>
@@ -11856,7 +11878,7 @@
         <v>540</v>
       </c>
       <c r="K228" t="n">
-        <v>1.075268817204301</v>
+        <v>0</v>
       </c>
       <c r="L228" t="n">
         <v>262.1</v>
@@ -11907,7 +11929,7 @@
         <v>540</v>
       </c>
       <c r="K229" t="n">
-        <v>1.075268817204301</v>
+        <v>10</v>
       </c>
       <c r="L229" t="n">
         <v>262.1</v>
@@ -11958,7 +11980,7 @@
         <v>551</v>
       </c>
       <c r="K230" t="n">
-        <v>-15.15151515151515</v>
+        <v>-48.14814814814815</v>
       </c>
       <c r="L230" t="n">
         <v>261.2</v>
@@ -12009,7 +12031,7 @@
         <v>561</v>
       </c>
       <c r="K231" t="n">
-        <v>9.473684210526317</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L231" t="n">
         <v>260.9</v>
@@ -12060,7 +12082,7 @@
         <v>561</v>
       </c>
       <c r="K232" t="n">
-        <v>-6.172839506172839</v>
+        <v>-8.571428571428571</v>
       </c>
       <c r="L232" t="n">
         <v>260.5</v>
@@ -12111,7 +12133,7 @@
         <v>562</v>
       </c>
       <c r="K233" t="n">
-        <v>-11.39240506329114</v>
+        <v>-25</v>
       </c>
       <c r="L233" t="n">
         <v>260.1</v>
@@ -12162,7 +12184,7 @@
         <v>563</v>
       </c>
       <c r="K234" t="n">
-        <v>-11.39240506329114</v>
+        <v>-17.24137931034483</v>
       </c>
       <c r="L234" t="n">
         <v>259.2</v>
@@ -12213,7 +12235,7 @@
         <v>568</v>
       </c>
       <c r="K235" t="n">
-        <v>-1.234567901234568</v>
+        <v>6.25</v>
       </c>
       <c r="L235" t="n">
         <v>259.2</v>
@@ -12264,7 +12286,7 @@
         <v>568</v>
       </c>
       <c r="K236" t="n">
-        <v>19.40298507462687</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="L236" t="n">
         <v>259.4</v>
@@ -12315,7 +12337,7 @@
         <v>571</v>
       </c>
       <c r="K237" t="n">
-        <v>-5.263157894736842</v>
+        <v>-3.225806451612903</v>
       </c>
       <c r="L237" t="n">
         <v>259.5</v>
@@ -12366,7 +12388,7 @@
         <v>576</v>
       </c>
       <c r="K238" t="n">
-        <v>-8.474576271186439</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L238" t="n">
         <v>258.9</v>
@@ -12417,7 +12439,7 @@
         <v>586</v>
       </c>
       <c r="K239" t="n">
-        <v>5.88235294117647</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L239" t="n">
         <v>259.3</v>
@@ -12468,7 +12490,7 @@
         <v>589</v>
       </c>
       <c r="K240" t="n">
-        <v>4.347826086956522</v>
+        <v>7.142857142857142</v>
       </c>
       <c r="L240" t="n">
         <v>260.5</v>
@@ -12519,7 +12541,7 @@
         <v>592</v>
       </c>
       <c r="K241" t="n">
-        <v>2.941176470588235</v>
+        <v>16.12903225806452</v>
       </c>
       <c r="L241" t="n">
         <v>261</v>
@@ -12570,7 +12592,7 @@
         <v>595</v>
       </c>
       <c r="K242" t="n">
-        <v>-2.857142857142857</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L242" t="n">
         <v>261.2</v>
@@ -12621,7 +12643,7 @@
         <v>607</v>
       </c>
       <c r="K243" t="n">
-        <v>-16.04938271604938</v>
+        <v>-18.18181818181818</v>
       </c>
       <c r="L243" t="n">
         <v>260.3</v>
@@ -12672,7 +12694,7 @@
         <v>621</v>
       </c>
       <c r="K244" t="n">
-        <v>-3.296703296703297</v>
+        <v>1.886792452830189</v>
       </c>
       <c r="L244" t="n">
         <v>260.9</v>
@@ -12723,7 +12745,7 @@
         <v>630</v>
       </c>
       <c r="K245" t="n">
-        <v>-8.333333333333332</v>
+        <v>-12.90322580645161</v>
       </c>
       <c r="L245" t="n">
         <v>260.1</v>
@@ -12774,7 +12796,7 @@
         <v>630</v>
       </c>
       <c r="K246" t="n">
-        <v>-6.382978723404255</v>
+        <v>-8.474576271186439</v>
       </c>
       <c r="L246" t="n">
         <v>259.3</v>
@@ -12825,7 +12847,7 @@
         <v>633</v>
       </c>
       <c r="K247" t="n">
-        <v>-1.052631578947368</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L247" t="n">
         <v>259.1</v>
@@ -12876,7 +12898,7 @@
         <v>635</v>
       </c>
       <c r="K248" t="n">
-        <v>-5.263157894736842</v>
+        <v>-18.36734693877551</v>
       </c>
       <c r="L248" t="n">
         <v>259.2</v>
@@ -12927,7 +12949,7 @@
         <v>635</v>
       </c>
       <c r="K249" t="n">
-        <v>-5.263157894736842</v>
+        <v>-13.04347826086956</v>
       </c>
       <c r="L249" t="n">
         <v>258.3</v>
@@ -12978,7 +13000,7 @@
         <v>638</v>
       </c>
       <c r="K250" t="n">
-        <v>10.3448275862069</v>
+        <v>-13.04347826086956</v>
       </c>
       <c r="L250" t="n">
         <v>258</v>
@@ -13029,7 +13051,7 @@
         <v>639</v>
       </c>
       <c r="K251" t="n">
-        <v>-2.564102564102564</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L251" t="n">
         <v>257.3</v>
@@ -13080,7 +13102,7 @@
         <v>639</v>
       </c>
       <c r="K252" t="n">
-        <v>-2.564102564102564</v>
+        <v>25</v>
       </c>
       <c r="L252" t="n">
         <v>256.9</v>
@@ -13131,7 +13153,7 @@
         <v>645</v>
       </c>
       <c r="K253" t="n">
-        <v>-8.433734939759036</v>
+        <v>-50</v>
       </c>
       <c r="L253" t="n">
         <v>257.1</v>
@@ -13182,7 +13204,7 @@
         <v>651</v>
       </c>
       <c r="K254" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L254" t="n">
         <v>256.5</v>
@@ -13233,7 +13255,7 @@
         <v>656</v>
       </c>
       <c r="K255" t="n">
-        <v>0</v>
+        <v>30.76923076923077</v>
       </c>
       <c r="L255" t="n">
         <v>257.3</v>
@@ -13284,7 +13306,7 @@
         <v>658</v>
       </c>
       <c r="K256" t="n">
-        <v>2.222222222222222</v>
+        <v>28</v>
       </c>
       <c r="L256" t="n">
         <v>258.3</v>
@@ -13335,7 +13357,7 @@
         <v>658</v>
       </c>
       <c r="K257" t="n">
-        <v>5.747126436781609</v>
+        <v>39.1304347826087</v>
       </c>
       <c r="L257" t="n">
         <v>259</v>
@@ -13386,7 +13408,7 @@
         <v>662</v>
       </c>
       <c r="K258" t="n">
-        <v>6.976744186046512</v>
+        <v>18.51851851851852</v>
       </c>
       <c r="L258" t="n">
         <v>259.5</v>
@@ -13437,7 +13459,7 @@
         <v>670</v>
       </c>
       <c r="K259" t="n">
-        <v>-14.28571428571428</v>
+        <v>-18.75</v>
       </c>
       <c r="L259" t="n">
         <v>259.2</v>
@@ -13488,7 +13510,7 @@
         <v>675</v>
       </c>
       <c r="K260" t="n">
-        <v>-4.651162790697675</v>
+        <v>0</v>
       </c>
       <c r="L260" t="n">
         <v>259.1</v>
@@ -13539,7 +13561,7 @@
         <v>675</v>
       </c>
       <c r="K261" t="n">
-        <v>-8.433734939759036</v>
+        <v>0</v>
       </c>
       <c r="L261" t="n">
         <v>259.1</v>
@@ -13590,7 +13612,7 @@
         <v>676</v>
       </c>
       <c r="K262" t="n">
-        <v>-3.703703703703703</v>
+        <v>22.58064516129032</v>
       </c>
       <c r="L262" t="n">
         <v>259.2</v>
@@ -13641,7 +13663,7 @@
         <v>677</v>
       </c>
       <c r="K263" t="n">
-        <v>11.42857142857143</v>
+        <v>0</v>
       </c>
       <c r="L263" t="n">
         <v>259.8</v>
@@ -13692,7 +13714,7 @@
         <v>677</v>
       </c>
       <c r="K264" t="n">
-        <v>-10.71428571428571</v>
+        <v>-23.80952380952381</v>
       </c>
       <c r="L264" t="n">
         <v>259.8</v>
@@ -13743,7 +13765,7 @@
         <v>677</v>
       </c>
       <c r="K265" t="n">
-        <v>6.382978723404255</v>
+        <v>-36.84210526315789</v>
       </c>
       <c r="L265" t="n">
         <v>259.3</v>
@@ -13794,7 +13816,7 @@
         <v>678</v>
       </c>
       <c r="K266" t="n">
-        <v>4.166666666666666</v>
+        <v>-40</v>
       </c>
       <c r="L266" t="n">
         <v>258.5</v>
@@ -13845,7 +13867,7 @@
         <v>679</v>
       </c>
       <c r="K267" t="n">
-        <v>-4.347826086956522</v>
+        <v>-29.41176470588236</v>
       </c>
       <c r="L267" t="n">
         <v>257.6</v>
@@ -13896,7 +13918,7 @@
         <v>679</v>
       </c>
       <c r="K268" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L268" t="n">
         <v>257.1</v>
@@ -13947,7 +13969,7 @@
         <v>679</v>
       </c>
       <c r="K269" t="n">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="L269" t="n">
         <v>257.4</v>
@@ -13998,7 +14020,7 @@
         <v>679</v>
       </c>
       <c r="K270" t="n">
-        <v>-7.317073170731707</v>
+        <v>-50</v>
       </c>
       <c r="L270" t="n">
         <v>257.2</v>
@@ -14049,7 +14071,7 @@
         <v>680</v>
       </c>
       <c r="K271" t="n">
-        <v>-2.439024390243902</v>
+        <v>-50</v>
       </c>
       <c r="L271" t="n">
         <v>257.1</v>
@@ -14151,7 +14173,7 @@
         <v>683</v>
       </c>
       <c r="K273" t="n">
-        <v>10.52631578947368</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L273" t="n">
         <v>256.8</v>
@@ -14253,7 +14275,7 @@
         <v>688</v>
       </c>
       <c r="K275" t="n">
-        <v>-25</v>
+        <v>-20</v>
       </c>
       <c r="L275" t="n">
         <v>256.5</v>
@@ -14304,7 +14326,7 @@
         <v>691</v>
       </c>
       <c r="K276" t="n">
-        <v>-39.39393939393939</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L276" t="n">
         <v>256</v>
@@ -14355,7 +14377,7 @@
         <v>694</v>
       </c>
       <c r="K277" t="n">
-        <v>-44.44444444444444</v>
+        <v>-46.66666666666666</v>
       </c>
       <c r="L277" t="n">
         <v>255.3</v>
@@ -14457,7 +14479,7 @@
         <v>700</v>
       </c>
       <c r="K279" t="n">
-        <v>-20</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L279" t="n">
         <v>253.9</v>
@@ -14508,7 +14530,7 @@
         <v>700</v>
       </c>
       <c r="K280" t="n">
-        <v>-44</v>
+        <v>-50</v>
       </c>
       <c r="L280" t="n">
         <v>253</v>
@@ -14559,7 +14581,7 @@
         <v>702</v>
       </c>
       <c r="K281" t="n">
-        <v>-33.33333333333333</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L281" t="n">
         <v>252.2</v>
@@ -14610,7 +14632,7 @@
         <v>703</v>
       </c>
       <c r="K282" t="n">
-        <v>-33.33333333333333</v>
+        <v>-30</v>
       </c>
       <c r="L282" t="n">
         <v>251.4</v>
@@ -14661,7 +14683,7 @@
         <v>706</v>
       </c>
       <c r="K283" t="n">
-        <v>-37.93103448275862</v>
+        <v>-52.38095238095239</v>
       </c>
       <c r="L283" t="n">
         <v>250.5</v>
@@ -14712,7 +14734,7 @@
         <v>706</v>
       </c>
       <c r="K284" t="n">
-        <v>-37.93103448275862</v>
+        <v>-44.44444444444444</v>
       </c>
       <c r="L284" t="n">
         <v>249.4</v>
@@ -14763,7 +14785,7 @@
         <v>707</v>
       </c>
       <c r="K285" t="n">
-        <v>-40</v>
+        <v>-37.5</v>
       </c>
       <c r="L285" t="n">
         <v>248.5</v>
@@ -14814,7 +14836,7 @@
         <v>708</v>
       </c>
       <c r="K286" t="n">
-        <v>-33.33333333333333</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L286" t="n">
         <v>248</v>
@@ -14865,7 +14887,7 @@
         <v>708</v>
       </c>
       <c r="K287" t="n">
-        <v>-31.03448275862069</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L287" t="n">
         <v>247.8</v>
@@ -14916,7 +14938,7 @@
         <v>709</v>
       </c>
       <c r="K288" t="n">
-        <v>-26.66666666666667</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L288" t="n">
         <v>247.5</v>
@@ -14967,7 +14989,7 @@
         <v>711</v>
       </c>
       <c r="K289" t="n">
-        <v>-31.25</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L289" t="n">
         <v>247.4</v>
@@ -15018,7 +15040,7 @@
         <v>711</v>
       </c>
       <c r="K290" t="n">
-        <v>-31.25</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L290" t="n">
         <v>247.3</v>
@@ -15069,7 +15091,7 @@
         <v>711</v>
       </c>
       <c r="K291" t="n">
-        <v>-35.48387096774194</v>
+        <v>-50</v>
       </c>
       <c r="L291" t="n">
         <v>247</v>
@@ -15120,7 +15142,7 @@
         <v>712</v>
       </c>
       <c r="K292" t="n">
-        <v>-41.93548387096774</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L292" t="n">
         <v>246.5</v>
@@ -15171,7 +15193,7 @@
         <v>712</v>
       </c>
       <c r="K293" t="n">
-        <v>-37.93103448275862</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L293" t="n">
         <v>246.3</v>
@@ -15222,7 +15244,7 @@
         <v>713</v>
       </c>
       <c r="K294" t="n">
-        <v>-50</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L294" t="n">
         <v>246</v>
@@ -15273,7 +15295,7 @@
         <v>713</v>
       </c>
       <c r="K295" t="n">
-        <v>-44</v>
+        <v>-60</v>
       </c>
       <c r="L295" t="n">
         <v>245.8</v>
@@ -15324,7 +15346,7 @@
         <v>713</v>
       </c>
       <c r="K296" t="n">
-        <v>-36.36363636363637</v>
+        <v>-60</v>
       </c>
       <c r="L296" t="n">
         <v>245.5</v>
@@ -15375,7 +15397,7 @@
         <v>716</v>
       </c>
       <c r="K297" t="n">
-        <v>-36.36363636363637</v>
+        <v>-100</v>
       </c>
       <c r="L297" t="n">
         <v>244.9</v>
@@ -15426,7 +15448,7 @@
         <v>717</v>
       </c>
       <c r="K298" t="n">
-        <v>-52.38095238095239</v>
+        <v>-100</v>
       </c>
       <c r="L298" t="n">
         <v>244.1</v>
@@ -15477,7 +15499,7 @@
         <v>717</v>
       </c>
       <c r="K299" t="n">
-        <v>-41.17647058823529</v>
+        <v>-100</v>
       </c>
       <c r="L299" t="n">
         <v>243.5</v>
@@ -15528,7 +15550,7 @@
         <v>720</v>
       </c>
       <c r="K300" t="n">
-        <v>-50</v>
+        <v>-100</v>
       </c>
       <c r="L300" t="n">
         <v>242.6</v>
@@ -15579,7 +15601,7 @@
         <v>720</v>
       </c>
       <c r="K301" t="n">
-        <v>-66.66666666666666</v>
+        <v>-100</v>
       </c>
       <c r="L301" t="n">
         <v>241.7</v>
@@ -15630,7 +15652,7 @@
         <v>723</v>
       </c>
       <c r="K302" t="n">
-        <v>-80</v>
+        <v>-100</v>
       </c>
       <c r="L302" t="n">
         <v>240.6</v>
@@ -15681,7 +15703,7 @@
         <v>729</v>
       </c>
       <c r="K303" t="n">
-        <v>-30.43478260869566</v>
+        <v>-25</v>
       </c>
       <c r="L303" t="n">
         <v>240.1</v>
@@ -15783,7 +15805,7 @@
         <v>734</v>
       </c>
       <c r="K305" t="n">
-        <v>-40.74074074074074</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L305" t="n">
         <v>238.3</v>
@@ -15834,7 +15856,7 @@
         <v>735</v>
       </c>
       <c r="K306" t="n">
-        <v>-48.14814814814815</v>
+        <v>-36.84210526315789</v>
       </c>
       <c r="L306" t="n">
         <v>237.3</v>
@@ -15885,7 +15907,7 @@
         <v>740</v>
       </c>
       <c r="K307" t="n">
-        <v>-25</v>
+        <v>-4.347826086956522</v>
       </c>
       <c r="L307" t="n">
         <v>237.1</v>
@@ -15936,7 +15958,7 @@
         <v>744</v>
       </c>
       <c r="K308" t="n">
-        <v>-37.14285714285715</v>
+        <v>-18.51851851851852</v>
       </c>
       <c r="L308" t="n">
         <v>236.6</v>
@@ -15987,7 +16009,7 @@
         <v>748</v>
       </c>
       <c r="K309" t="n">
-        <v>-18.91891891891892</v>
+        <v>7.142857142857142</v>
       </c>
       <c r="L309" t="n">
         <v>236.5</v>
@@ -16038,7 +16060,7 @@
         <v>752</v>
       </c>
       <c r="K310" t="n">
-        <v>-26.82926829268293</v>
+        <v>-6.25</v>
       </c>
       <c r="L310" t="n">
         <v>236.3</v>
@@ -16089,7 +16111,7 @@
         <v>754</v>
       </c>
       <c r="K311" t="n">
-        <v>-20.93023255813954</v>
+        <v>9.67741935483871</v>
       </c>
       <c r="L311" t="n">
         <v>236.3</v>
@@ -16140,7 +16162,7 @@
         <v>759</v>
       </c>
       <c r="K312" t="n">
-        <v>-27.65957446808511</v>
+        <v>-26.66666666666667</v>
       </c>
       <c r="L312" t="n">
         <v>236.1</v>
@@ -16191,7 +16213,7 @@
         <v>761</v>
       </c>
       <c r="K313" t="n">
-        <v>-30.61224489795918</v>
+        <v>-18.51851851851852</v>
       </c>
       <c r="L313" t="n">
         <v>235.1</v>
@@ -16242,7 +16264,7 @@
         <v>772</v>
       </c>
       <c r="K314" t="n">
-        <v>-5.084745762711865</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L314" t="n">
         <v>235.7</v>
@@ -16293,7 +16315,7 @@
         <v>780</v>
       </c>
       <c r="K315" t="n">
-        <v>-16.41791044776119</v>
+        <v>-2.222222222222222</v>
       </c>
       <c r="L315" t="n">
         <v>235.5</v>
@@ -16344,7 +16366,7 @@
         <v>782</v>
       </c>
       <c r="K316" t="n">
-        <v>-18.84057971014493</v>
+        <v>-19.04761904761905</v>
       </c>
       <c r="L316" t="n">
         <v>235.2</v>
@@ -16395,7 +16417,7 @@
         <v>787</v>
       </c>
       <c r="K317" t="n">
-        <v>-7.042253521126761</v>
+        <v>2.325581395348837</v>
       </c>
       <c r="L317" t="n">
         <v>234.9</v>
@@ -16446,7 +16468,7 @@
         <v>791</v>
       </c>
       <c r="K318" t="n">
-        <v>-10.81081081081081</v>
+        <v>-16.27906976744186</v>
       </c>
       <c r="L318" t="n">
         <v>234.6</v>
@@ -16497,7 +16519,7 @@
         <v>791</v>
       </c>
       <c r="K319" t="n">
-        <v>-10.81081081081081</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L319" t="n">
         <v>233.9</v>
@@ -16548,7 +16570,7 @@
         <v>791</v>
       </c>
       <c r="K320" t="n">
-        <v>-7.042253521126761</v>
+        <v>-13.51351351351351</v>
       </c>
       <c r="L320" t="n">
         <v>233.6</v>
@@ -16599,7 +16621,7 @@
         <v>792</v>
       </c>
       <c r="K321" t="n">
-        <v>-8.333333333333332</v>
+        <v>-3.03030303030303</v>
       </c>
       <c r="L321" t="n">
         <v>233</v>
@@ -16650,7 +16672,7 @@
         <v>802</v>
       </c>
       <c r="K322" t="n">
-        <v>8.860759493670885</v>
+        <v>26.82926829268293</v>
       </c>
       <c r="L322" t="n">
         <v>233.9</v>
@@ -16701,7 +16723,7 @@
         <v>810</v>
       </c>
       <c r="K323" t="n">
-        <v>-8.641975308641975</v>
+        <v>-21.05263157894737</v>
       </c>
       <c r="L323" t="n">
         <v>234.2</v>
@@ -16752,7 +16774,7 @@
         <v>810</v>
       </c>
       <c r="K324" t="n">
-        <v>-2.631578947368421</v>
+        <v>0</v>
       </c>
       <c r="L324" t="n">
         <v>233.4</v>
@@ -16803,7 +16825,7 @@
         <v>810</v>
       </c>
       <c r="K325" t="n">
-        <v>-2.631578947368421</v>
+        <v>7.142857142857142</v>
       </c>
       <c r="L325" t="n">
         <v>233.4</v>
@@ -16854,7 +16876,7 @@
         <v>813</v>
       </c>
       <c r="K326" t="n">
-        <v>2.564102564102564</v>
+        <v>0</v>
       </c>
       <c r="L326" t="n">
         <v>233.9</v>
@@ -16905,7 +16927,7 @@
         <v>813</v>
       </c>
       <c r="K327" t="n">
-        <v>-4.10958904109589</v>
+        <v>18.18181818181818</v>
       </c>
       <c r="L327" t="n">
         <v>233.9</v>
@@ -16956,7 +16978,7 @@
         <v>814</v>
       </c>
       <c r="K328" t="n">
-        <v>2.857142857142857</v>
+        <v>21.73913043478261</v>
       </c>
       <c r="L328" t="n">
         <v>234.4</v>
@@ -17007,7 +17029,7 @@
         <v>815</v>
       </c>
       <c r="K329" t="n">
-        <v>-1.492537313432836</v>
+        <v>25</v>
       </c>
       <c r="L329" t="n">
         <v>235</v>
@@ -17058,7 +17080,7 @@
         <v>815</v>
       </c>
       <c r="K330" t="n">
-        <v>4.761904761904762</v>
+        <v>30.43478260869566</v>
       </c>
       <c r="L330" t="n">
         <v>235.6</v>
@@ -17109,7 +17131,7 @@
         <v>820</v>
       </c>
       <c r="K331" t="n">
-        <v>-6.060606060606061</v>
+        <v>-44.44444444444444</v>
       </c>
       <c r="L331" t="n">
         <v>235.8</v>
@@ -17160,7 +17182,7 @@
         <v>826</v>
       </c>
       <c r="K332" t="n">
-        <v>10.44776119402985</v>
+        <v>37.5</v>
       </c>
       <c r="L332" t="n">
         <v>235.6</v>
@@ -17211,7 +17233,7 @@
         <v>827</v>
       </c>
       <c r="K333" t="n">
-        <v>15.15151515151515</v>
+        <v>41.17647058823529</v>
       </c>
       <c r="L333" t="n">
         <v>236.3</v>
@@ -17262,7 +17284,7 @@
         <v>828</v>
       </c>
       <c r="K334" t="n">
-        <v>0</v>
+        <v>44.44444444444444</v>
       </c>
       <c r="L334" t="n">
         <v>237.1</v>
@@ -17313,7 +17335,7 @@
         <v>829</v>
       </c>
       <c r="K335" t="n">
-        <v>18.36734693877551</v>
+        <v>37.5</v>
       </c>
       <c r="L335" t="n">
         <v>238</v>
@@ -17364,7 +17386,7 @@
         <v>834</v>
       </c>
       <c r="K336" t="n">
-        <v>11.53846153846154</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L336" t="n">
         <v>238.1</v>
@@ -17415,7 +17437,7 @@
         <v>837</v>
       </c>
       <c r="K337" t="n">
-        <v>8</v>
+        <v>13.04347826086956</v>
       </c>
       <c r="L337" t="n">
         <v>238.5</v>
@@ -17466,7 +17488,7 @@
         <v>837</v>
       </c>
       <c r="K338" t="n">
-        <v>17.39130434782609</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L338" t="n">
         <v>238.8</v>
@@ -17517,7 +17539,7 @@
         <v>841</v>
       </c>
       <c r="K339" t="n">
-        <v>8</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L339" t="n">
         <v>238.6</v>
@@ -17568,7 +17590,7 @@
         <v>843</v>
       </c>
       <c r="K340" t="n">
-        <v>3.846153846153846</v>
+        <v>4.347826086956522</v>
       </c>
       <c r="L340" t="n">
         <v>238.2</v>
@@ -17619,7 +17641,7 @@
         <v>843</v>
       </c>
       <c r="K341" t="n">
-        <v>5.88235294117647</v>
+        <v>-29.41176470588236</v>
       </c>
       <c r="L341" t="n">
         <v>238.3</v>
@@ -17670,7 +17692,7 @@
         <v>844</v>
       </c>
       <c r="K342" t="n">
-        <v>-19.04761904761905</v>
+        <v>-41.17647058823529</v>
       </c>
       <c r="L342" t="n">
         <v>237.7</v>
@@ -17721,7 +17743,7 @@
         <v>845</v>
       </c>
       <c r="K343" t="n">
-        <v>2.857142857142857</v>
+        <v>-41.17647058823529</v>
       </c>
       <c r="L343" t="n">
         <v>237.1</v>
@@ -17772,7 +17794,7 @@
         <v>845</v>
       </c>
       <c r="K344" t="n">
-        <v>2.857142857142857</v>
+        <v>-50</v>
       </c>
       <c r="L344" t="n">
         <v>236.4</v>
@@ -17823,7 +17845,7 @@
         <v>846</v>
       </c>
       <c r="K345" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L345" t="n">
         <v>235.5</v>
@@ -17874,7 +17896,7 @@
         <v>846</v>
       </c>
       <c r="K346" t="n">
-        <v>-9.090909090909092</v>
+        <v>-77.77777777777779</v>
       </c>
       <c r="L346" t="n">
         <v>235.1</v>
@@ -17925,7 +17947,7 @@
         <v>846</v>
       </c>
       <c r="K347" t="n">
-        <v>-9.090909090909092</v>
+        <v>-77.77777777777779</v>
       </c>
       <c r="L347" t="n">
         <v>234.4</v>
@@ -17976,7 +17998,7 @@
         <v>847</v>
       </c>
       <c r="K348" t="n">
-        <v>-15.15151515151515</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L348" t="n">
         <v>233.6</v>
@@ -18027,7 +18049,7 @@
         <v>847</v>
       </c>
       <c r="K349" t="n">
-        <v>-18.75</v>
+        <v>-50</v>
       </c>
       <c r="L349" t="n">
         <v>233.2</v>
@@ -18078,7 +18100,7 @@
         <v>847</v>
       </c>
       <c r="K350" t="n">
-        <v>-18.75</v>
+        <v>-50</v>
       </c>
       <c r="L350" t="n">
         <v>233</v>
@@ -18129,7 +18151,7 @@
         <v>847</v>
       </c>
       <c r="K351" t="n">
-        <v>-3.703703703703703</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L351" t="n">
         <v>232.8</v>
@@ -18180,7 +18202,7 @@
         <v>851</v>
       </c>
       <c r="K352" t="n">
-        <v>-12</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L352" t="n">
         <v>233.1</v>
@@ -18231,7 +18253,7 @@
         <v>855</v>
       </c>
       <c r="K353" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="L353" t="n">
         <v>233.7</v>
@@ -18282,7 +18304,7 @@
         <v>855</v>
       </c>
       <c r="K354" t="n">
-        <v>-3.703703703703703</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="L354" t="n">
         <v>234.3</v>
@@ -18333,7 +18355,7 @@
         <v>855</v>
       </c>
       <c r="K355" t="n">
-        <v>-7.692307692307693</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="L355" t="n">
         <v>235</v>
@@ -18384,7 +18406,7 @@
         <v>855</v>
       </c>
       <c r="K356" t="n">
-        <v>14.28571428571428</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="L356" t="n">
         <v>235.7</v>
@@ -18435,7 +18457,7 @@
         <v>855</v>
       </c>
       <c r="K357" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L357" t="n">
         <v>236.4</v>
@@ -18486,7 +18508,7 @@
         <v>856</v>
       </c>
       <c r="K358" t="n">
-        <v>-5.263157894736842</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="L358" t="n">
         <v>237.1</v>
@@ -18537,7 +18559,7 @@
         <v>856</v>
       </c>
       <c r="K359" t="n">
-        <v>20</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="L359" t="n">
         <v>237.8</v>
@@ -18588,7 +18610,7 @@
         <v>856</v>
       </c>
       <c r="K360" t="n">
-        <v>38.46153846153847</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="L360" t="n">
         <v>238.5</v>
@@ -18639,7 +18661,7 @@
         <v>858</v>
       </c>
       <c r="K361" t="n">
-        <v>20</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L361" t="n">
         <v>239</v>
@@ -18690,7 +18712,7 @@
         <v>863</v>
       </c>
       <c r="K362" t="n">
-        <v>47.36842105263158</v>
+        <v>25</v>
       </c>
       <c r="L362" t="n">
         <v>239.6</v>
@@ -18741,7 +18763,7 @@
         <v>863</v>
       </c>
       <c r="K363" t="n">
-        <v>44.44444444444444</v>
+        <v>25</v>
       </c>
       <c r="L363" t="n">
         <v>239.8</v>
@@ -18792,7 +18814,7 @@
         <v>864</v>
       </c>
       <c r="K364" t="n">
-        <v>47.36842105263158</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L364" t="n">
         <v>240.1</v>
@@ -18843,7 +18865,7 @@
         <v>865</v>
       </c>
       <c r="K365" t="n">
-        <v>47.36842105263158</v>
+        <v>20</v>
       </c>
       <c r="L365" t="n">
         <v>240.3</v>
@@ -18894,7 +18916,7 @@
         <v>868</v>
       </c>
       <c r="K366" t="n">
-        <v>27.27272727272727</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L366" t="n">
         <v>240.2</v>

--- a/BackTest/2019-11-13 BackTest ABT.xlsx
+++ b/BackTest/2019-11-13 BackTest ABT.xlsx
@@ -4931,184 +4931,166 @@
         <v>243.5</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
         <v>228</v>
       </c>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
+      <c r="C131" t="n">
+        <v>226</v>
+      </c>
+      <c r="D131" t="n">
+        <v>229</v>
+      </c>
+      <c r="E131" t="n">
+        <v>226</v>
+      </c>
+      <c r="F131" t="n">
+        <v>1079.7485</v>
+      </c>
+      <c r="G131" t="n">
+        <v>243.0333333333333</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>227</v>
+      </c>
+      <c r="C132" t="n">
+        <v>227</v>
+      </c>
+      <c r="D132" t="n">
+        <v>227</v>
+      </c>
+      <c r="E132" t="n">
+        <v>227</v>
+      </c>
+      <c r="F132" t="n">
+        <v>10</v>
+      </c>
+      <c r="G132" t="n">
+        <v>242.5833333333333</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>227</v>
+      </c>
+      <c r="C133" t="n">
+        <v>227</v>
+      </c>
+      <c r="D133" t="n">
+        <v>227</v>
+      </c>
+      <c r="E133" t="n">
+        <v>227</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0.1751</v>
+      </c>
+      <c r="G133" t="n">
+        <v>242.15</v>
+      </c>
+      <c r="H133" t="n">
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="n">
+        <v>227</v>
+      </c>
+      <c r="K133" t="n">
+        <v>227</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>227</v>
+      </c>
+      <c r="C134" t="n">
+        <v>229</v>
+      </c>
+      <c r="D134" t="n">
+        <v>230</v>
+      </c>
+      <c r="E134" t="n">
+        <v>227</v>
+      </c>
+      <c r="F134" t="n">
+        <v>1365.3654</v>
+      </c>
+      <c r="G134" t="n">
+        <v>241.8333333333333</v>
+      </c>
+      <c r="H134" t="n">
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="n">
+        <v>227</v>
+      </c>
+      <c r="K134" t="n">
+        <v>227</v>
+      </c>
+      <c r="L134" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>228</v>
-      </c>
-      <c r="C131" t="n">
-        <v>226</v>
-      </c>
-      <c r="D131" t="n">
-        <v>229</v>
-      </c>
-      <c r="E131" t="n">
-        <v>226</v>
-      </c>
-      <c r="F131" t="n">
-        <v>1079.7485</v>
-      </c>
-      <c r="G131" t="n">
-        <v>243.0333333333333</v>
-      </c>
-      <c r="H131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="n">
-        <v>228</v>
-      </c>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>227</v>
-      </c>
-      <c r="C132" t="n">
-        <v>227</v>
-      </c>
-      <c r="D132" t="n">
-        <v>227</v>
-      </c>
-      <c r="E132" t="n">
-        <v>227</v>
-      </c>
-      <c r="F132" t="n">
-        <v>10</v>
-      </c>
-      <c r="G132" t="n">
-        <v>242.5833333333333</v>
-      </c>
-      <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="n">
-        <v>227</v>
-      </c>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>227</v>
-      </c>
-      <c r="C133" t="n">
-        <v>227</v>
-      </c>
-      <c r="D133" t="n">
-        <v>227</v>
-      </c>
-      <c r="E133" t="n">
-        <v>227</v>
-      </c>
-      <c r="F133" t="n">
-        <v>0.1751</v>
-      </c>
-      <c r="G133" t="n">
-        <v>242.15</v>
-      </c>
-      <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="n">
-        <v>227</v>
-      </c>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>227</v>
-      </c>
-      <c r="C134" t="n">
-        <v>229</v>
-      </c>
-      <c r="D134" t="n">
-        <v>230</v>
-      </c>
-      <c r="E134" t="n">
-        <v>227</v>
-      </c>
-      <c r="F134" t="n">
-        <v>1365.3654</v>
-      </c>
-      <c r="G134" t="n">
-        <v>241.8333333333333</v>
-      </c>
-      <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="n">
-        <v>227</v>
-      </c>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5142,9 +5124,11 @@
         <v>0</v>
       </c>
       <c r="J135" t="n">
-        <v>232</v>
-      </c>
-      <c r="K135" t="inlineStr"/>
+        <v>229</v>
+      </c>
+      <c r="K135" t="n">
+        <v>227</v>
+      </c>
       <c r="L135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5183,9 +5167,11 @@
         <v>0</v>
       </c>
       <c r="J136" t="n">
-        <v>229</v>
-      </c>
-      <c r="K136" t="inlineStr"/>
+        <v>232</v>
+      </c>
+      <c r="K136" t="n">
+        <v>227</v>
+      </c>
       <c r="L136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5224,9 +5210,11 @@
         <v>0</v>
       </c>
       <c r="J137" t="n">
-        <v>231</v>
-      </c>
-      <c r="K137" t="inlineStr"/>
+        <v>228</v>
+      </c>
+      <c r="K137" t="n">
+        <v>227</v>
+      </c>
       <c r="L137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5267,7 +5255,9 @@
       <c r="J138" t="n">
         <v>230</v>
       </c>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>227</v>
+      </c>
       <c r="L138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5300,15 +5290,15 @@
         <v>240.7333333333333</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="n">
-        <v>231</v>
-      </c>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>227</v>
+      </c>
       <c r="L139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5341,15 +5331,15 @@
         <v>240.5166666666667</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="n">
-        <v>232</v>
-      </c>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>227</v>
+      </c>
       <c r="L140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5382,15 +5372,15 @@
         <v>240.2833333333333</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="n">
-        <v>230</v>
-      </c>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>227</v>
+      </c>
       <c r="L141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5423,15 +5413,15 @@
         <v>239.9833333333333</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="n">
-        <v>232</v>
-      </c>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>227</v>
+      </c>
       <c r="L142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5464,15 +5454,15 @@
         <v>239.6666666666667</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="n">
-        <v>229</v>
-      </c>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>227</v>
+      </c>
       <c r="L143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5505,15 +5495,15 @@
         <v>239.3</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="n">
-        <v>233</v>
-      </c>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>227</v>
+      </c>
       <c r="L144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5546,15 +5536,15 @@
         <v>239.1</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="n">
-        <v>230</v>
-      </c>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>227</v>
+      </c>
       <c r="L145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5587,15 +5577,15 @@
         <v>238.9166666666667</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="n">
-        <v>235</v>
-      </c>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>227</v>
+      </c>
       <c r="L146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5628,15 +5618,15 @@
         <v>238.75</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="n">
-        <v>239</v>
-      </c>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>227</v>
+      </c>
       <c r="L147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5669,15 +5659,15 @@
         <v>238.5666666666667</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="n">
-        <v>230</v>
-      </c>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>227</v>
+      </c>
       <c r="L148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5710,15 +5700,15 @@
         <v>238.4</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="n">
-        <v>238</v>
-      </c>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>227</v>
+      </c>
       <c r="L149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5751,15 +5741,15 @@
         <v>238.2333333333333</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="n">
-        <v>239</v>
-      </c>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>227</v>
+      </c>
       <c r="L150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5798,7 +5788,9 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>227</v>
+      </c>
       <c r="L151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5837,7 +5829,9 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>227</v>
+      </c>
       <c r="L152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5876,7 +5870,9 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>227</v>
+      </c>
       <c r="L153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5915,7 +5911,9 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>227</v>
+      </c>
       <c r="L154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5954,7 +5952,9 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>227</v>
+      </c>
       <c r="L155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5993,7 +5993,9 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>227</v>
+      </c>
       <c r="L156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6032,7 +6034,9 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>227</v>
+      </c>
       <c r="L157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6071,7 +6075,9 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>227</v>
+      </c>
       <c r="L158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6110,7 +6116,9 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>227</v>
+      </c>
       <c r="L159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6149,7 +6157,9 @@
         <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>227</v>
+      </c>
       <c r="L160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6188,7 +6198,9 @@
         <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>227</v>
+      </c>
       <c r="L161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6227,7 +6239,9 @@
         <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>227</v>
+      </c>
       <c r="L162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6266,7 +6280,9 @@
         <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>227</v>
+      </c>
       <c r="L163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6305,7 +6321,9 @@
         <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>227</v>
+      </c>
       <c r="L164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6344,7 +6362,9 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>227</v>
+      </c>
       <c r="L165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6383,7 +6403,9 @@
         <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>227</v>
+      </c>
       <c r="L166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6419,1695 +6441,1987 @@
         <v>0</v>
       </c>
       <c r="I167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>227</v>
+      </c>
       <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>256</v>
+      </c>
+      <c r="C168" t="n">
+        <v>256</v>
+      </c>
+      <c r="D168" t="n">
+        <v>256</v>
+      </c>
+      <c r="E168" t="n">
+        <v>256</v>
+      </c>
+      <c r="F168" t="n">
+        <v>444</v>
+      </c>
+      <c r="G168" t="n">
+        <v>239.2333333333333</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>227</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>253</v>
+      </c>
+      <c r="C169" t="n">
+        <v>254</v>
+      </c>
+      <c r="D169" t="n">
+        <v>254</v>
+      </c>
+      <c r="E169" t="n">
+        <v>253</v>
+      </c>
+      <c r="F169" t="n">
+        <v>154.3006</v>
+      </c>
+      <c r="G169" t="n">
+        <v>239.4333333333333</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>227</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>259</v>
+      </c>
+      <c r="C170" t="n">
+        <v>259</v>
+      </c>
+      <c r="D170" t="n">
+        <v>259</v>
+      </c>
+      <c r="E170" t="n">
+        <v>259</v>
+      </c>
+      <c r="F170" t="n">
+        <v>5</v>
+      </c>
+      <c r="G170" t="n">
+        <v>239.6166666666667</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>227</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>245</v>
+      </c>
+      <c r="C171" t="n">
+        <v>245</v>
+      </c>
+      <c r="D171" t="n">
+        <v>245</v>
+      </c>
+      <c r="E171" t="n">
+        <v>245</v>
+      </c>
+      <c r="F171" t="n">
+        <v>246.8729</v>
+      </c>
+      <c r="G171" t="n">
+        <v>239.6166666666667</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>227</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>251</v>
+      </c>
+      <c r="C172" t="n">
+        <v>251</v>
+      </c>
+      <c r="D172" t="n">
+        <v>251</v>
+      </c>
+      <c r="E172" t="n">
+        <v>251</v>
+      </c>
+      <c r="F172" t="n">
+        <v>1400</v>
+      </c>
+      <c r="G172" t="n">
+        <v>239.7333333333333</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>227</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>251</v>
+      </c>
+      <c r="C173" t="n">
+        <v>251</v>
+      </c>
+      <c r="D173" t="n">
+        <v>251</v>
+      </c>
+      <c r="E173" t="n">
+        <v>251</v>
+      </c>
+      <c r="F173" t="n">
+        <v>202.133</v>
+      </c>
+      <c r="G173" t="n">
+        <v>239.8833333333333</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>227</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>252</v>
+      </c>
+      <c r="C174" t="n">
+        <v>252</v>
+      </c>
+      <c r="D174" t="n">
+        <v>252</v>
+      </c>
+      <c r="E174" t="n">
+        <v>252</v>
+      </c>
+      <c r="F174" t="n">
+        <v>10</v>
+      </c>
+      <c r="G174" t="n">
+        <v>240.0666666666667</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>227</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>247</v>
+      </c>
+      <c r="C175" t="n">
+        <v>250</v>
+      </c>
+      <c r="D175" t="n">
+        <v>253</v>
+      </c>
+      <c r="E175" t="n">
+        <v>247</v>
+      </c>
+      <c r="F175" t="n">
+        <v>15544.5007</v>
+      </c>
+      <c r="G175" t="n">
+        <v>240.2666666666667</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>227</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>248</v>
+      </c>
+      <c r="C176" t="n">
+        <v>248</v>
+      </c>
+      <c r="D176" t="n">
+        <v>248</v>
+      </c>
+      <c r="E176" t="n">
+        <v>248</v>
+      </c>
+      <c r="F176" t="n">
+        <v>726.7708</v>
+      </c>
+      <c r="G176" t="n">
+        <v>240.4333333333333</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>227</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>248</v>
+      </c>
+      <c r="C177" t="n">
+        <v>252</v>
+      </c>
+      <c r="D177" t="n">
+        <v>252</v>
+      </c>
+      <c r="E177" t="n">
+        <v>248</v>
+      </c>
+      <c r="F177" t="n">
+        <v>1250</v>
+      </c>
+      <c r="G177" t="n">
+        <v>240.5666666666667</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>227</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>249</v>
+      </c>
+      <c r="C178" t="n">
+        <v>249</v>
+      </c>
+      <c r="D178" t="n">
+        <v>249</v>
+      </c>
+      <c r="E178" t="n">
+        <v>249</v>
+      </c>
+      <c r="F178" t="n">
+        <v>254</v>
+      </c>
+      <c r="G178" t="n">
+        <v>240.7</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>227</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>248</v>
+      </c>
+      <c r="C179" t="n">
+        <v>248</v>
+      </c>
+      <c r="D179" t="n">
+        <v>248</v>
+      </c>
+      <c r="E179" t="n">
+        <v>248</v>
+      </c>
+      <c r="F179" t="n">
+        <v>1699.0604</v>
+      </c>
+      <c r="G179" t="n">
+        <v>240.8666666666667</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>227</v>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>246</v>
+      </c>
+      <c r="C180" t="n">
+        <v>248</v>
+      </c>
+      <c r="D180" t="n">
+        <v>248</v>
+      </c>
+      <c r="E180" t="n">
+        <v>246</v>
+      </c>
+      <c r="F180" t="n">
+        <v>2689.1675</v>
+      </c>
+      <c r="G180" t="n">
+        <v>241.0666666666667</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>227</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>248</v>
+      </c>
+      <c r="C181" t="n">
+        <v>256</v>
+      </c>
+      <c r="D181" t="n">
+        <v>256</v>
+      </c>
+      <c r="E181" t="n">
+        <v>248</v>
+      </c>
+      <c r="F181" t="n">
+        <v>1750</v>
+      </c>
+      <c r="G181" t="n">
+        <v>241.4</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>227</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>247</v>
+      </c>
+      <c r="C182" t="n">
+        <v>247</v>
+      </c>
+      <c r="D182" t="n">
+        <v>247</v>
+      </c>
+      <c r="E182" t="n">
+        <v>247</v>
+      </c>
+      <c r="F182" t="n">
+        <v>277.6077</v>
+      </c>
+      <c r="G182" t="n">
+        <v>241.5833333333333</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>227</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>249</v>
+      </c>
+      <c r="C183" t="n">
+        <v>249</v>
+      </c>
+      <c r="D183" t="n">
+        <v>249</v>
+      </c>
+      <c r="E183" t="n">
+        <v>249</v>
+      </c>
+      <c r="F183" t="n">
+        <v>140</v>
+      </c>
+      <c r="G183" t="n">
+        <v>241.8666666666667</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>227</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>252</v>
+      </c>
+      <c r="C184" t="n">
+        <v>252</v>
+      </c>
+      <c r="D184" t="n">
+        <v>252</v>
+      </c>
+      <c r="E184" t="n">
+        <v>252</v>
+      </c>
+      <c r="F184" t="n">
+        <v>218</v>
+      </c>
+      <c r="G184" t="n">
+        <v>242.2333333333333</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>227</v>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>252</v>
+      </c>
+      <c r="C185" t="n">
+        <v>252</v>
+      </c>
+      <c r="D185" t="n">
+        <v>252</v>
+      </c>
+      <c r="E185" t="n">
+        <v>252</v>
+      </c>
+      <c r="F185" t="n">
+        <v>999</v>
+      </c>
+      <c r="G185" t="n">
+        <v>242.6</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>227</v>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>252</v>
+      </c>
+      <c r="C186" t="n">
+        <v>251</v>
+      </c>
+      <c r="D186" t="n">
+        <v>252</v>
+      </c>
+      <c r="E186" t="n">
+        <v>251</v>
+      </c>
+      <c r="F186" t="n">
+        <v>1750</v>
+      </c>
+      <c r="G186" t="n">
+        <v>242.95</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>227</v>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>254</v>
+      </c>
+      <c r="C187" t="n">
+        <v>255</v>
+      </c>
+      <c r="D187" t="n">
+        <v>255</v>
+      </c>
+      <c r="E187" t="n">
+        <v>254</v>
+      </c>
+      <c r="F187" t="n">
+        <v>250</v>
+      </c>
+      <c r="G187" t="n">
+        <v>243.3666666666667</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>227</v>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>255</v>
+      </c>
+      <c r="C188" t="n">
+        <v>256</v>
+      </c>
+      <c r="D188" t="n">
+        <v>256</v>
+      </c>
+      <c r="E188" t="n">
+        <v>255</v>
+      </c>
+      <c r="F188" t="n">
+        <v>1289.6818</v>
+      </c>
+      <c r="G188" t="n">
+        <v>243.8333333333333</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>227</v>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>255</v>
+      </c>
+      <c r="C189" t="n">
+        <v>255</v>
+      </c>
+      <c r="D189" t="n">
+        <v>255</v>
+      </c>
+      <c r="E189" t="n">
+        <v>255</v>
+      </c>
+      <c r="F189" t="n">
+        <v>1063</v>
+      </c>
+      <c r="G189" t="n">
+        <v>244.2833333333333</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>227</v>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>256</v>
+      </c>
+      <c r="C190" t="n">
+        <v>256</v>
+      </c>
+      <c r="D190" t="n">
+        <v>256</v>
+      </c>
+      <c r="E190" t="n">
+        <v>256</v>
+      </c>
+      <c r="F190" t="n">
+        <v>105.9978</v>
+      </c>
+      <c r="G190" t="n">
+        <v>244.75</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>227</v>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>255</v>
+      </c>
+      <c r="C191" t="n">
+        <v>255</v>
+      </c>
+      <c r="D191" t="n">
+        <v>255</v>
+      </c>
+      <c r="E191" t="n">
+        <v>255</v>
+      </c>
+      <c r="F191" t="n">
+        <v>0.1749</v>
+      </c>
+      <c r="G191" t="n">
+        <v>245.2333333333333</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>227</v>
+      </c>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>251</v>
+      </c>
+      <c r="C192" t="n">
+        <v>262</v>
+      </c>
+      <c r="D192" t="n">
+        <v>262</v>
+      </c>
+      <c r="E192" t="n">
+        <v>251</v>
+      </c>
+      <c r="F192" t="n">
+        <v>2084.1934</v>
+      </c>
+      <c r="G192" t="n">
+        <v>245.8166666666667</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>227</v>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>254</v>
+      </c>
+      <c r="C193" t="n">
+        <v>254</v>
+      </c>
+      <c r="D193" t="n">
+        <v>254</v>
+      </c>
+      <c r="E193" t="n">
+        <v>254</v>
+      </c>
+      <c r="F193" t="n">
+        <v>140.3002</v>
+      </c>
+      <c r="G193" t="n">
+        <v>246.2666666666667</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>227</v>
+      </c>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>254</v>
+      </c>
+      <c r="C194" t="n">
+        <v>251</v>
+      </c>
+      <c r="D194" t="n">
+        <v>254</v>
+      </c>
+      <c r="E194" t="n">
+        <v>251</v>
+      </c>
+      <c r="F194" t="n">
+        <v>138.764</v>
+      </c>
+      <c r="G194" t="n">
+        <v>246.6333333333333</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>227</v>
+      </c>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>251</v>
+      </c>
+      <c r="C195" t="n">
+        <v>251</v>
+      </c>
+      <c r="D195" t="n">
+        <v>251</v>
+      </c>
+      <c r="E195" t="n">
+        <v>251</v>
+      </c>
+      <c r="F195" t="n">
+        <v>1303.2331</v>
+      </c>
+      <c r="G195" t="n">
+        <v>246.95</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>227</v>
+      </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>248</v>
+      </c>
+      <c r="C196" t="n">
+        <v>248</v>
+      </c>
+      <c r="D196" t="n">
+        <v>248</v>
+      </c>
+      <c r="E196" t="n">
+        <v>248</v>
+      </c>
+      <c r="F196" t="n">
+        <v>372.8703</v>
+      </c>
+      <c r="G196" t="n">
+        <v>247.2833333333333</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>227</v>
+      </c>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>249</v>
+      </c>
+      <c r="C197" t="n">
+        <v>242</v>
+      </c>
+      <c r="D197" t="n">
+        <v>249</v>
+      </c>
+      <c r="E197" t="n">
+        <v>242</v>
+      </c>
+      <c r="F197" t="n">
+        <v>5468.6952</v>
+      </c>
+      <c r="G197" t="n">
+        <v>247.4833333333333</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>227</v>
+      </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>247</v>
+      </c>
+      <c r="C198" t="n">
+        <v>253</v>
+      </c>
+      <c r="D198" t="n">
+        <v>253</v>
+      </c>
+      <c r="E198" t="n">
+        <v>247</v>
+      </c>
+      <c r="F198" t="n">
+        <v>1375.4771</v>
+      </c>
+      <c r="G198" t="n">
+        <v>247.95</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>227</v>
+      </c>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>250</v>
+      </c>
+      <c r="C199" t="n">
+        <v>250</v>
+      </c>
+      <c r="D199" t="n">
+        <v>250</v>
+      </c>
+      <c r="E199" t="n">
+        <v>250</v>
+      </c>
+      <c r="F199" t="n">
+        <v>2900</v>
+      </c>
+      <c r="G199" t="n">
+        <v>248.2666666666667</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>227</v>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>254</v>
+      </c>
+      <c r="C200" t="n">
+        <v>256</v>
+      </c>
+      <c r="D200" t="n">
+        <v>256</v>
+      </c>
+      <c r="E200" t="n">
+        <v>254</v>
+      </c>
+      <c r="F200" t="n">
+        <v>750</v>
+      </c>
+      <c r="G200" t="n">
+        <v>248.6833333333333</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>227</v>
+      </c>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>256</v>
+      </c>
+      <c r="C201" t="n">
+        <v>258</v>
+      </c>
+      <c r="D201" t="n">
+        <v>258</v>
+      </c>
+      <c r="E201" t="n">
+        <v>256</v>
+      </c>
+      <c r="F201" t="n">
+        <v>1636</v>
+      </c>
+      <c r="G201" t="n">
+        <v>249.1166666666667</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>227</v>
+      </c>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M201" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>258</v>
+      </c>
+      <c r="C202" t="n">
+        <v>258</v>
+      </c>
+      <c r="D202" t="n">
+        <v>258</v>
+      </c>
+      <c r="E202" t="n">
+        <v>258</v>
+      </c>
+      <c r="F202" t="n">
+        <v>250</v>
+      </c>
+      <c r="G202" t="n">
+        <v>249.6166666666667</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>227</v>
+      </c>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M202" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>258</v>
+      </c>
+      <c r="C203" t="n">
+        <v>258</v>
+      </c>
+      <c r="D203" t="n">
+        <v>258</v>
+      </c>
+      <c r="E203" t="n">
+        <v>258</v>
+      </c>
+      <c r="F203" t="n">
+        <v>1440</v>
+      </c>
+      <c r="G203" t="n">
+        <v>250.1</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>227</v>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M203" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>258</v>
+      </c>
+      <c r="C204" t="n">
+        <v>260</v>
+      </c>
+      <c r="D204" t="n">
+        <v>260</v>
+      </c>
+      <c r="E204" t="n">
+        <v>258</v>
+      </c>
+      <c r="F204" t="n">
+        <v>570</v>
+      </c>
+      <c r="G204" t="n">
+        <v>250.6833333333333</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>227</v>
+      </c>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M204" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>260</v>
+      </c>
+      <c r="C205" t="n">
+        <v>260</v>
+      </c>
+      <c r="D205" t="n">
+        <v>260</v>
+      </c>
+      <c r="E205" t="n">
+        <v>259</v>
+      </c>
+      <c r="F205" t="n">
+        <v>6353</v>
+      </c>
+      <c r="G205" t="n">
+        <v>251.0833333333333</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>227</v>
+      </c>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M205" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>260</v>
+      </c>
+      <c r="C206" t="n">
+        <v>260</v>
+      </c>
+      <c r="D206" t="n">
+        <v>260</v>
+      </c>
+      <c r="E206" t="n">
+        <v>260</v>
+      </c>
+      <c r="F206" t="n">
+        <v>750</v>
+      </c>
+      <c r="G206" t="n">
+        <v>251.45</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>227</v>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M206" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>260</v>
+      </c>
+      <c r="C207" t="n">
+        <v>260</v>
+      </c>
+      <c r="D207" t="n">
+        <v>260</v>
+      </c>
+      <c r="E207" t="n">
+        <v>260</v>
+      </c>
+      <c r="F207" t="n">
+        <v>9.6273</v>
+      </c>
+      <c r="G207" t="n">
+        <v>251.8</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>227</v>
+      </c>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M207" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>260</v>
+      </c>
+      <c r="C208" t="n">
+        <v>260</v>
+      </c>
+      <c r="D208" t="n">
+        <v>260</v>
+      </c>
+      <c r="E208" t="n">
+        <v>260</v>
+      </c>
+      <c r="F208" t="n">
+        <v>750</v>
+      </c>
+      <c r="G208" t="n">
+        <v>252.1666666666667</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>227</v>
+      </c>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M208" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>260</v>
+      </c>
+      <c r="C209" t="n">
+        <v>260</v>
+      </c>
+      <c r="D209" t="n">
+        <v>260</v>
+      </c>
+      <c r="E209" t="n">
+        <v>260</v>
+      </c>
+      <c r="F209" t="n">
+        <v>750</v>
+      </c>
+      <c r="G209" t="n">
+        <v>252.5</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>227</v>
+      </c>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M209" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>260</v>
+      </c>
+      <c r="C210" t="n">
+        <v>265</v>
+      </c>
+      <c r="D210" t="n">
+        <v>265</v>
+      </c>
+      <c r="E210" t="n">
+        <v>260</v>
+      </c>
+      <c r="F210" t="n">
+        <v>6048.3271</v>
+      </c>
+      <c r="G210" t="n">
+        <v>252.9333333333333</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>227</v>
+      </c>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M210" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>251</v>
+      </c>
+      <c r="C211" t="n">
+        <v>251</v>
+      </c>
+      <c r="D211" t="n">
+        <v>251</v>
+      </c>
+      <c r="E211" t="n">
+        <v>251</v>
+      </c>
+      <c r="F211" t="n">
+        <v>3.9795</v>
+      </c>
+      <c r="G211" t="n">
+        <v>253.1333333333333</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="n">
+        <v>0</v>
+      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>227</v>
+      </c>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M211" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>264</v>
+      </c>
+      <c r="C212" t="n">
+        <v>265</v>
+      </c>
+      <c r="D212" t="n">
+        <v>265</v>
+      </c>
+      <c r="E212" t="n">
+        <v>264</v>
+      </c>
+      <c r="F212" t="n">
+        <v>11614</v>
+      </c>
+      <c r="G212" t="n">
+        <v>253.5333333333333</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="n">
+        <v>0</v>
+      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>227</v>
+      </c>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M212" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>265</v>
+      </c>
+      <c r="C213" t="n">
+        <v>268</v>
+      </c>
+      <c r="D213" t="n">
+        <v>268</v>
+      </c>
+      <c r="E213" t="n">
+        <v>265</v>
+      </c>
+      <c r="F213" t="n">
+        <v>6228</v>
+      </c>
+      <c r="G213" t="n">
+        <v>254</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="n">
+        <v>0</v>
+      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>227</v>
+      </c>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M213" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>268</v>
+      </c>
+      <c r="C214" t="n">
+        <v>267</v>
+      </c>
+      <c r="D214" t="n">
+        <v>268</v>
+      </c>
+      <c r="E214" t="n">
+        <v>250</v>
+      </c>
+      <c r="F214" t="n">
+        <v>9497.963128358209</v>
+      </c>
+      <c r="G214" t="n">
+        <v>254.3666666666667</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="n">
+        <v>0</v>
+      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>227</v>
+      </c>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M214" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>264</v>
+      </c>
+      <c r="C215" t="n">
+        <v>264</v>
+      </c>
+      <c r="D215" t="n">
+        <v>264</v>
+      </c>
+      <c r="E215" t="n">
+        <v>264</v>
+      </c>
+      <c r="F215" t="n">
+        <v>8.9084</v>
+      </c>
+      <c r="G215" t="n">
+        <v>254.6833333333333</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="n">
+        <v>1</v>
+      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>227</v>
+      </c>
+      <c r="L215" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="M167" t="inlineStr"/>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>256</v>
-      </c>
-      <c r="C168" t="n">
-        <v>256</v>
-      </c>
-      <c r="D168" t="n">
-        <v>256</v>
-      </c>
-      <c r="E168" t="n">
-        <v>256</v>
-      </c>
-      <c r="F168" t="n">
-        <v>444</v>
-      </c>
-      <c r="G168" t="n">
-        <v>239.2333333333333</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>1</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>253</v>
-      </c>
-      <c r="C169" t="n">
-        <v>254</v>
-      </c>
-      <c r="D169" t="n">
-        <v>254</v>
-      </c>
-      <c r="E169" t="n">
-        <v>253</v>
-      </c>
-      <c r="F169" t="n">
-        <v>154.3006</v>
-      </c>
-      <c r="G169" t="n">
-        <v>239.4333333333333</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>1</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>259</v>
-      </c>
-      <c r="C170" t="n">
-        <v>259</v>
-      </c>
-      <c r="D170" t="n">
-        <v>259</v>
-      </c>
-      <c r="E170" t="n">
-        <v>259</v>
-      </c>
-      <c r="F170" t="n">
-        <v>5</v>
-      </c>
-      <c r="G170" t="n">
-        <v>239.6166666666667</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>1</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>245</v>
-      </c>
-      <c r="C171" t="n">
-        <v>245</v>
-      </c>
-      <c r="D171" t="n">
-        <v>245</v>
-      </c>
-      <c r="E171" t="n">
-        <v>245</v>
-      </c>
-      <c r="F171" t="n">
-        <v>246.8729</v>
-      </c>
-      <c r="G171" t="n">
-        <v>239.6166666666667</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>1</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>251</v>
-      </c>
-      <c r="C172" t="n">
-        <v>251</v>
-      </c>
-      <c r="D172" t="n">
-        <v>251</v>
-      </c>
-      <c r="E172" t="n">
-        <v>251</v>
-      </c>
-      <c r="F172" t="n">
-        <v>1400</v>
-      </c>
-      <c r="G172" t="n">
-        <v>239.7333333333333</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>1</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>251</v>
-      </c>
-      <c r="C173" t="n">
-        <v>251</v>
-      </c>
-      <c r="D173" t="n">
-        <v>251</v>
-      </c>
-      <c r="E173" t="n">
-        <v>251</v>
-      </c>
-      <c r="F173" t="n">
-        <v>202.133</v>
-      </c>
-      <c r="G173" t="n">
-        <v>239.8833333333333</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>1</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>252</v>
-      </c>
-      <c r="C174" t="n">
-        <v>252</v>
-      </c>
-      <c r="D174" t="n">
-        <v>252</v>
-      </c>
-      <c r="E174" t="n">
-        <v>252</v>
-      </c>
-      <c r="F174" t="n">
-        <v>10</v>
-      </c>
-      <c r="G174" t="n">
-        <v>240.0666666666667</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>1</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>247</v>
-      </c>
-      <c r="C175" t="n">
-        <v>250</v>
-      </c>
-      <c r="D175" t="n">
-        <v>253</v>
-      </c>
-      <c r="E175" t="n">
-        <v>247</v>
-      </c>
-      <c r="F175" t="n">
-        <v>15544.5007</v>
-      </c>
-      <c r="G175" t="n">
-        <v>240.2666666666667</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>1</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>248</v>
-      </c>
-      <c r="C176" t="n">
-        <v>248</v>
-      </c>
-      <c r="D176" t="n">
-        <v>248</v>
-      </c>
-      <c r="E176" t="n">
-        <v>248</v>
-      </c>
-      <c r="F176" t="n">
-        <v>726.7708</v>
-      </c>
-      <c r="G176" t="n">
-        <v>240.4333333333333</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>248</v>
-      </c>
-      <c r="C177" t="n">
-        <v>252</v>
-      </c>
-      <c r="D177" t="n">
-        <v>252</v>
-      </c>
-      <c r="E177" t="n">
-        <v>248</v>
-      </c>
-      <c r="F177" t="n">
-        <v>1250</v>
-      </c>
-      <c r="G177" t="n">
-        <v>240.5666666666667</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>249</v>
-      </c>
-      <c r="C178" t="n">
-        <v>249</v>
-      </c>
-      <c r="D178" t="n">
-        <v>249</v>
-      </c>
-      <c r="E178" t="n">
-        <v>249</v>
-      </c>
-      <c r="F178" t="n">
-        <v>254</v>
-      </c>
-      <c r="G178" t="n">
-        <v>240.7</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>248</v>
-      </c>
-      <c r="C179" t="n">
-        <v>248</v>
-      </c>
-      <c r="D179" t="n">
-        <v>248</v>
-      </c>
-      <c r="E179" t="n">
-        <v>248</v>
-      </c>
-      <c r="F179" t="n">
-        <v>1699.0604</v>
-      </c>
-      <c r="G179" t="n">
-        <v>240.8666666666667</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>246</v>
-      </c>
-      <c r="C180" t="n">
-        <v>248</v>
-      </c>
-      <c r="D180" t="n">
-        <v>248</v>
-      </c>
-      <c r="E180" t="n">
-        <v>246</v>
-      </c>
-      <c r="F180" t="n">
-        <v>2689.1675</v>
-      </c>
-      <c r="G180" t="n">
-        <v>241.0666666666667</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>248</v>
-      </c>
-      <c r="C181" t="n">
-        <v>256</v>
-      </c>
-      <c r="D181" t="n">
-        <v>256</v>
-      </c>
-      <c r="E181" t="n">
-        <v>248</v>
-      </c>
-      <c r="F181" t="n">
-        <v>1750</v>
-      </c>
-      <c r="G181" t="n">
-        <v>241.4</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>247</v>
-      </c>
-      <c r="C182" t="n">
-        <v>247</v>
-      </c>
-      <c r="D182" t="n">
-        <v>247</v>
-      </c>
-      <c r="E182" t="n">
-        <v>247</v>
-      </c>
-      <c r="F182" t="n">
-        <v>277.6077</v>
-      </c>
-      <c r="G182" t="n">
-        <v>241.5833333333333</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>249</v>
-      </c>
-      <c r="C183" t="n">
-        <v>249</v>
-      </c>
-      <c r="D183" t="n">
-        <v>249</v>
-      </c>
-      <c r="E183" t="n">
-        <v>249</v>
-      </c>
-      <c r="F183" t="n">
-        <v>140</v>
-      </c>
-      <c r="G183" t="n">
-        <v>241.8666666666667</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>252</v>
-      </c>
-      <c r="C184" t="n">
-        <v>252</v>
-      </c>
-      <c r="D184" t="n">
-        <v>252</v>
-      </c>
-      <c r="E184" t="n">
-        <v>252</v>
-      </c>
-      <c r="F184" t="n">
-        <v>218</v>
-      </c>
-      <c r="G184" t="n">
-        <v>242.2333333333333</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>252</v>
-      </c>
-      <c r="C185" t="n">
-        <v>252</v>
-      </c>
-      <c r="D185" t="n">
-        <v>252</v>
-      </c>
-      <c r="E185" t="n">
-        <v>252</v>
-      </c>
-      <c r="F185" t="n">
-        <v>999</v>
-      </c>
-      <c r="G185" t="n">
-        <v>242.6</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>252</v>
-      </c>
-      <c r="C186" t="n">
-        <v>251</v>
-      </c>
-      <c r="D186" t="n">
-        <v>252</v>
-      </c>
-      <c r="E186" t="n">
-        <v>251</v>
-      </c>
-      <c r="F186" t="n">
-        <v>1750</v>
-      </c>
-      <c r="G186" t="n">
-        <v>242.95</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>254</v>
-      </c>
-      <c r="C187" t="n">
-        <v>255</v>
-      </c>
-      <c r="D187" t="n">
-        <v>255</v>
-      </c>
-      <c r="E187" t="n">
-        <v>254</v>
-      </c>
-      <c r="F187" t="n">
-        <v>250</v>
-      </c>
-      <c r="G187" t="n">
-        <v>243.3666666666667</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>255</v>
-      </c>
-      <c r="C188" t="n">
-        <v>256</v>
-      </c>
-      <c r="D188" t="n">
-        <v>256</v>
-      </c>
-      <c r="E188" t="n">
-        <v>255</v>
-      </c>
-      <c r="F188" t="n">
-        <v>1289.6818</v>
-      </c>
-      <c r="G188" t="n">
-        <v>243.8333333333333</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>255</v>
-      </c>
-      <c r="C189" t="n">
-        <v>255</v>
-      </c>
-      <c r="D189" t="n">
-        <v>255</v>
-      </c>
-      <c r="E189" t="n">
-        <v>255</v>
-      </c>
-      <c r="F189" t="n">
-        <v>1063</v>
-      </c>
-      <c r="G189" t="n">
-        <v>244.2833333333333</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>256</v>
-      </c>
-      <c r="C190" t="n">
-        <v>256</v>
-      </c>
-      <c r="D190" t="n">
-        <v>256</v>
-      </c>
-      <c r="E190" t="n">
-        <v>256</v>
-      </c>
-      <c r="F190" t="n">
-        <v>105.9978</v>
-      </c>
-      <c r="G190" t="n">
-        <v>244.75</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>255</v>
-      </c>
-      <c r="C191" t="n">
-        <v>255</v>
-      </c>
-      <c r="D191" t="n">
-        <v>255</v>
-      </c>
-      <c r="E191" t="n">
-        <v>255</v>
-      </c>
-      <c r="F191" t="n">
-        <v>0.1749</v>
-      </c>
-      <c r="G191" t="n">
-        <v>245.2333333333333</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>251</v>
-      </c>
-      <c r="C192" t="n">
-        <v>262</v>
-      </c>
-      <c r="D192" t="n">
-        <v>262</v>
-      </c>
-      <c r="E192" t="n">
-        <v>251</v>
-      </c>
-      <c r="F192" t="n">
-        <v>2084.1934</v>
-      </c>
-      <c r="G192" t="n">
-        <v>245.8166666666667</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>254</v>
-      </c>
-      <c r="C193" t="n">
-        <v>254</v>
-      </c>
-      <c r="D193" t="n">
-        <v>254</v>
-      </c>
-      <c r="E193" t="n">
-        <v>254</v>
-      </c>
-      <c r="F193" t="n">
-        <v>140.3002</v>
-      </c>
-      <c r="G193" t="n">
-        <v>246.2666666666667</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="n">
-        <v>1</v>
-      </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>254</v>
-      </c>
-      <c r="C194" t="n">
-        <v>251</v>
-      </c>
-      <c r="D194" t="n">
-        <v>254</v>
-      </c>
-      <c r="E194" t="n">
-        <v>251</v>
-      </c>
-      <c r="F194" t="n">
-        <v>138.764</v>
-      </c>
-      <c r="G194" t="n">
-        <v>246.6333333333333</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="n">
-        <v>1</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>251</v>
-      </c>
-      <c r="C195" t="n">
-        <v>251</v>
-      </c>
-      <c r="D195" t="n">
-        <v>251</v>
-      </c>
-      <c r="E195" t="n">
-        <v>251</v>
-      </c>
-      <c r="F195" t="n">
-        <v>1303.2331</v>
-      </c>
-      <c r="G195" t="n">
-        <v>246.95</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="n">
-        <v>1</v>
-      </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>248</v>
-      </c>
-      <c r="C196" t="n">
-        <v>248</v>
-      </c>
-      <c r="D196" t="n">
-        <v>248</v>
-      </c>
-      <c r="E196" t="n">
-        <v>248</v>
-      </c>
-      <c r="F196" t="n">
-        <v>372.8703</v>
-      </c>
-      <c r="G196" t="n">
-        <v>247.2833333333333</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="n">
-        <v>1</v>
-      </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>249</v>
-      </c>
-      <c r="C197" t="n">
-        <v>242</v>
-      </c>
-      <c r="D197" t="n">
-        <v>249</v>
-      </c>
-      <c r="E197" t="n">
-        <v>242</v>
-      </c>
-      <c r="F197" t="n">
-        <v>5468.6952</v>
-      </c>
-      <c r="G197" t="n">
-        <v>247.4833333333333</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="n">
-        <v>1</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>247</v>
-      </c>
-      <c r="C198" t="n">
-        <v>253</v>
-      </c>
-      <c r="D198" t="n">
-        <v>253</v>
-      </c>
-      <c r="E198" t="n">
-        <v>247</v>
-      </c>
-      <c r="F198" t="n">
-        <v>1375.4771</v>
-      </c>
-      <c r="G198" t="n">
-        <v>247.95</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>250</v>
-      </c>
-      <c r="C199" t="n">
-        <v>250</v>
-      </c>
-      <c r="D199" t="n">
-        <v>250</v>
-      </c>
-      <c r="E199" t="n">
-        <v>250</v>
-      </c>
-      <c r="F199" t="n">
-        <v>2900</v>
-      </c>
-      <c r="G199" t="n">
-        <v>248.2666666666667</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>254</v>
-      </c>
-      <c r="C200" t="n">
-        <v>256</v>
-      </c>
-      <c r="D200" t="n">
-        <v>256</v>
-      </c>
-      <c r="E200" t="n">
-        <v>254</v>
-      </c>
-      <c r="F200" t="n">
-        <v>750</v>
-      </c>
-      <c r="G200" t="n">
-        <v>248.6833333333333</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>256</v>
-      </c>
-      <c r="C201" t="n">
-        <v>258</v>
-      </c>
-      <c r="D201" t="n">
-        <v>258</v>
-      </c>
-      <c r="E201" t="n">
-        <v>256</v>
-      </c>
-      <c r="F201" t="n">
-        <v>1636</v>
-      </c>
-      <c r="G201" t="n">
-        <v>249.1166666666667</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>258</v>
-      </c>
-      <c r="C202" t="n">
-        <v>258</v>
-      </c>
-      <c r="D202" t="n">
-        <v>258</v>
-      </c>
-      <c r="E202" t="n">
-        <v>258</v>
-      </c>
-      <c r="F202" t="n">
-        <v>250</v>
-      </c>
-      <c r="G202" t="n">
-        <v>249.6166666666667</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>258</v>
-      </c>
-      <c r="C203" t="n">
-        <v>258</v>
-      </c>
-      <c r="D203" t="n">
-        <v>258</v>
-      </c>
-      <c r="E203" t="n">
-        <v>258</v>
-      </c>
-      <c r="F203" t="n">
-        <v>1440</v>
-      </c>
-      <c r="G203" t="n">
-        <v>250.1</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>258</v>
-      </c>
-      <c r="C204" t="n">
-        <v>260</v>
-      </c>
-      <c r="D204" t="n">
-        <v>260</v>
-      </c>
-      <c r="E204" t="n">
-        <v>258</v>
-      </c>
-      <c r="F204" t="n">
-        <v>570</v>
-      </c>
-      <c r="G204" t="n">
-        <v>250.6833333333333</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>260</v>
-      </c>
-      <c r="C205" t="n">
-        <v>260</v>
-      </c>
-      <c r="D205" t="n">
-        <v>260</v>
-      </c>
-      <c r="E205" t="n">
-        <v>259</v>
-      </c>
-      <c r="F205" t="n">
-        <v>6353</v>
-      </c>
-      <c r="G205" t="n">
-        <v>251.0833333333333</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>260</v>
-      </c>
-      <c r="C206" t="n">
-        <v>260</v>
-      </c>
-      <c r="D206" t="n">
-        <v>260</v>
-      </c>
-      <c r="E206" t="n">
-        <v>260</v>
-      </c>
-      <c r="F206" t="n">
-        <v>750</v>
-      </c>
-      <c r="G206" t="n">
-        <v>251.45</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>260</v>
-      </c>
-      <c r="C207" t="n">
-        <v>260</v>
-      </c>
-      <c r="D207" t="n">
-        <v>260</v>
-      </c>
-      <c r="E207" t="n">
-        <v>260</v>
-      </c>
-      <c r="F207" t="n">
-        <v>9.6273</v>
-      </c>
-      <c r="G207" t="n">
-        <v>251.8</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>260</v>
-      </c>
-      <c r="C208" t="n">
-        <v>260</v>
-      </c>
-      <c r="D208" t="n">
-        <v>260</v>
-      </c>
-      <c r="E208" t="n">
-        <v>260</v>
-      </c>
-      <c r="F208" t="n">
-        <v>750</v>
-      </c>
-      <c r="G208" t="n">
-        <v>252.1666666666667</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>260</v>
-      </c>
-      <c r="C209" t="n">
-        <v>260</v>
-      </c>
-      <c r="D209" t="n">
-        <v>260</v>
-      </c>
-      <c r="E209" t="n">
-        <v>260</v>
-      </c>
-      <c r="F209" t="n">
-        <v>750</v>
-      </c>
-      <c r="G209" t="n">
-        <v>252.5</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>260</v>
-      </c>
-      <c r="C210" t="n">
-        <v>265</v>
-      </c>
-      <c r="D210" t="n">
-        <v>265</v>
-      </c>
-      <c r="E210" t="n">
-        <v>260</v>
-      </c>
-      <c r="F210" t="n">
-        <v>6048.3271</v>
-      </c>
-      <c r="G210" t="n">
-        <v>252.9333333333333</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>251</v>
-      </c>
-      <c r="C211" t="n">
-        <v>251</v>
-      </c>
-      <c r="D211" t="n">
-        <v>251</v>
-      </c>
-      <c r="E211" t="n">
-        <v>251</v>
-      </c>
-      <c r="F211" t="n">
-        <v>3.9795</v>
-      </c>
-      <c r="G211" t="n">
-        <v>253.1333333333333</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>264</v>
-      </c>
-      <c r="C212" t="n">
-        <v>265</v>
-      </c>
-      <c r="D212" t="n">
-        <v>265</v>
-      </c>
-      <c r="E212" t="n">
-        <v>264</v>
-      </c>
-      <c r="F212" t="n">
-        <v>11614</v>
-      </c>
-      <c r="G212" t="n">
-        <v>253.5333333333333</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>265</v>
-      </c>
-      <c r="C213" t="n">
-        <v>268</v>
-      </c>
-      <c r="D213" t="n">
-        <v>268</v>
-      </c>
-      <c r="E213" t="n">
-        <v>265</v>
-      </c>
-      <c r="F213" t="n">
-        <v>6228</v>
-      </c>
-      <c r="G213" t="n">
-        <v>254</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>268</v>
-      </c>
-      <c r="C214" t="n">
-        <v>267</v>
-      </c>
-      <c r="D214" t="n">
-        <v>268</v>
-      </c>
-      <c r="E214" t="n">
-        <v>250</v>
-      </c>
-      <c r="F214" t="n">
-        <v>9497.963128358209</v>
-      </c>
-      <c r="G214" t="n">
-        <v>254.3666666666667</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>264</v>
-      </c>
-      <c r="C215" t="n">
-        <v>264</v>
-      </c>
-      <c r="D215" t="n">
-        <v>264</v>
-      </c>
-      <c r="E215" t="n">
-        <v>264</v>
-      </c>
-      <c r="F215" t="n">
-        <v>8.9084</v>
-      </c>
-      <c r="G215" t="n">
-        <v>254.6833333333333</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
       <c r="M215" t="n">
-        <v>1</v>
+        <v>1.157995594713656</v>
       </c>
     </row>
     <row r="216">
@@ -11878,20 +12192,14 @@
         <v>243.8333333333333</v>
       </c>
       <c r="H323" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I323" t="n">
         <v>0</v>
       </c>
-      <c r="J323" t="n">
-        <v>235</v>
-      </c>
+      <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr"/>
-      <c r="L323" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L323" t="inlineStr"/>
       <c r="M323" t="n">
         <v>1</v>
       </c>
@@ -11926,11 +12234,7 @@
       </c>
       <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr"/>
-      <c r="L324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L324" t="inlineStr"/>
       <c r="M324" t="n">
         <v>1</v>
       </c>
@@ -11965,11 +12269,7 @@
       </c>
       <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr"/>
-      <c r="L325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L325" t="inlineStr"/>
       <c r="M325" t="n">
         <v>1</v>
       </c>
@@ -12004,11 +12304,7 @@
       </c>
       <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr"/>
-      <c r="L326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L326" t="inlineStr"/>
       <c r="M326" t="n">
         <v>1</v>
       </c>
@@ -12043,11 +12339,7 @@
       </c>
       <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr"/>
-      <c r="L327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L327" t="inlineStr"/>
       <c r="M327" t="n">
         <v>1</v>
       </c>
@@ -12082,11 +12374,7 @@
       </c>
       <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr"/>
-      <c r="L328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L328" t="inlineStr"/>
       <c r="M328" t="n">
         <v>1</v>
       </c>
@@ -12121,11 +12409,7 @@
       </c>
       <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr"/>
-      <c r="L329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L329" t="inlineStr"/>
       <c r="M329" t="n">
         <v>1</v>
       </c>
@@ -12160,11 +12444,7 @@
       </c>
       <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr"/>
-      <c r="L330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L330" t="inlineStr"/>
       <c r="M330" t="n">
         <v>1</v>
       </c>
@@ -12199,11 +12479,7 @@
       </c>
       <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr"/>
-      <c r="L331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L331" t="inlineStr"/>
       <c r="M331" t="n">
         <v>1</v>
       </c>
@@ -12238,11 +12514,7 @@
       </c>
       <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr"/>
-      <c r="L332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L332" t="inlineStr"/>
       <c r="M332" t="n">
         <v>1</v>
       </c>
@@ -12277,11 +12549,7 @@
       </c>
       <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr"/>
-      <c r="L333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L333" t="inlineStr"/>
       <c r="M333" t="n">
         <v>1</v>
       </c>
@@ -12316,11 +12584,7 @@
       </c>
       <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr"/>
-      <c r="L334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L334" t="inlineStr"/>
       <c r="M334" t="n">
         <v>1</v>
       </c>
@@ -12355,11 +12619,7 @@
       </c>
       <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr"/>
-      <c r="L335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L335" t="inlineStr"/>
       <c r="M335" t="n">
         <v>1</v>
       </c>
@@ -12394,11 +12654,7 @@
       </c>
       <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr"/>
-      <c r="L336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L336" t="inlineStr"/>
       <c r="M336" t="n">
         <v>1</v>
       </c>
@@ -12433,11 +12689,7 @@
       </c>
       <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr"/>
-      <c r="L337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L337" t="inlineStr"/>
       <c r="M337" t="n">
         <v>1</v>
       </c>
@@ -12472,11 +12724,7 @@
       </c>
       <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr"/>
-      <c r="L338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L338" t="inlineStr"/>
       <c r="M338" t="n">
         <v>1</v>
       </c>
@@ -12511,11 +12759,7 @@
       </c>
       <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr"/>
-      <c r="L339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L339" t="inlineStr"/>
       <c r="M339" t="n">
         <v>1</v>
       </c>
@@ -12550,11 +12794,7 @@
       </c>
       <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr"/>
-      <c r="L340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L340" t="inlineStr"/>
       <c r="M340" t="n">
         <v>1</v>
       </c>
@@ -12589,11 +12829,7 @@
       </c>
       <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr"/>
-      <c r="L341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L341" t="inlineStr"/>
       <c r="M341" t="n">
         <v>1</v>
       </c>
@@ -12628,11 +12864,7 @@
       </c>
       <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr"/>
-      <c r="L342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L342" t="inlineStr"/>
       <c r="M342" t="n">
         <v>1</v>
       </c>
@@ -12667,11 +12899,7 @@
       </c>
       <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr"/>
-      <c r="L343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L343" t="inlineStr"/>
       <c r="M343" t="n">
         <v>1</v>
       </c>
@@ -12706,11 +12934,7 @@
       </c>
       <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr"/>
-      <c r="L344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L344" t="inlineStr"/>
       <c r="M344" t="n">
         <v>1</v>
       </c>
@@ -12745,11 +12969,7 @@
       </c>
       <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr"/>
-      <c r="L345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L345" t="inlineStr"/>
       <c r="M345" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-11-13 BackTest ABT.xlsx
+++ b/BackTest/2019-11-13 BackTest ABT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>68503.81662028986</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>68878.0099657111</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>45870.8628657111</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>45870.8628657111</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>42105.7695657111</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>43409.8726657111</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>42912.99976571109</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>42950.4529657111</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>42686.6649657111</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>35579.9483657111</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>48943.6064657111</v>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>47443.6064657111</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>47445.6064657111</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>45333.1144657111</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>45333.1144657111</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>45574.0868657111</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>44829.2131657111</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>33797.4456657111</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>33797.4456657111</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>33247.4456657111</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>38561.0915657111</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>38561.0915657111</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>27381.6278657111</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>27381.6278657111</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>25119.9951657111</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>27156.5196657111</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>27158.5196657111</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>25491.5080657111</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>25491.5080657111</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>25491.5080657111</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>55911.95964806404</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>35796.51624806404</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>33104.51624806404</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>33398.25554806404</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>31841.25554806404</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>39226.26534806404</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>38880.13204806404</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>36625.55454806404</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>36625.55454806404</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>35922.80034806403</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>38980.70044806403</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>42677.96884806403</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>42677.96884806403</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>42039.58184806403</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>45657.17914806403</v>
       </c>
       <c r="H82" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>44516.11784806403</v>
       </c>
       <c r="H86" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>44536.11784806403</v>
       </c>
       <c r="H87" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>43286.11784806403</v>
       </c>
       <c r="H88" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>43286.11784806403</v>
       </c>
       <c r="H89" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>42570.45764806403</v>
       </c>
       <c r="H94" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>42425.37274806403</v>
       </c>
       <c r="H95" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>32981.26094806403</v>
       </c>
       <c r="H96" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>20906.70404806403</v>
       </c>
       <c r="H97" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>24244.22738421788</v>
       </c>
       <c r="H98" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>24244.22738421788</v>
       </c>
       <c r="H99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>24244.22738421788</v>
       </c>
       <c r="H100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>25452.22738421788</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>25455.22738421788</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>23592.30578421788</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>16725.07077200413</v>
       </c>
       <c r="H122" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>16184.84507200413</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>16184.84507200413</v>
       </c>
       <c r="H127" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>14524.42507200413</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>14524.42507200413</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>14274.42507200413</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>14274.42507200413</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>11254.84507200413</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-43116.06322799587</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-46816.87222799587</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-79821.14562799587</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-75652.73152799587</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -6589,10 +6589,14 @@
         <v>-132681.9627279959</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>228</v>
+      </c>
+      <c r="J188" t="n">
+        <v>228</v>
+      </c>
       <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
@@ -6622,11 +6626,19 @@
         <v>-132681.9627279959</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>228</v>
+      </c>
+      <c r="J189" t="n">
+        <v>228</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6655,15 +6667,17 @@
         <v>-133761.7112279959</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I190" t="n">
         <v>228</v>
       </c>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>228</v>
+      </c>
       <c r="K190" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L190" t="n">
@@ -6694,12 +6708,14 @@
         <v>-133751.7112279959</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I191" t="n">
         <v>226</v>
       </c>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>228</v>
+      </c>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6733,12 +6749,14 @@
         <v>-133751.7112279959</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I192" t="n">
         <v>227</v>
       </c>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>228</v>
+      </c>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6772,12 +6790,14 @@
         <v>-132386.3458279959</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I193" t="n">
         <v>227</v>
       </c>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>228</v>
+      </c>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6811,12 +6831,14 @@
         <v>-132108.7380693752</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I194" t="n">
         <v>229</v>
       </c>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>228</v>
+      </c>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6850,12 +6872,14 @@
         <v>-132810.8540693752</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I195" t="n">
         <v>232</v>
       </c>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>228</v>
+      </c>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6889,12 +6913,14 @@
         <v>-131810.8540693752</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I196" t="n">
         <v>228</v>
       </c>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>228</v>
+      </c>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6928,12 +6954,14 @@
         <v>-151865.2811693752</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I197" t="n">
         <v>230</v>
       </c>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>228</v>
+      </c>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6967,12 +6995,14 @@
         <v>-149423.9558693752</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I198" t="n">
         <v>225</v>
       </c>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>228</v>
+      </c>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7006,12 +7036,14 @@
         <v>-149423.9558693752</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I199" t="n">
         <v>231</v>
       </c>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>228</v>
+      </c>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7045,10 +7077,14 @@
         <v>-149419.5558693752</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I200" t="n">
+        <v>231</v>
+      </c>
+      <c r="J200" t="n">
+        <v>228</v>
+      </c>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7082,12 +7118,14 @@
         <v>-151520.7918693752</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I201" t="n">
         <v>232</v>
       </c>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>228</v>
+      </c>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7121,12 +7159,14 @@
         <v>-150648.6912693752</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I202" t="n">
         <v>228</v>
       </c>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>228</v>
+      </c>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7160,12 +7200,14 @@
         <v>-157513.8412693752</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I203" t="n">
         <v>229</v>
       </c>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>228</v>
+      </c>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7199,12 +7241,14 @@
         <v>-157046.9132693752</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I204" t="n">
         <v>225</v>
       </c>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>228</v>
+      </c>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7238,10 +7282,14 @@
         <v>-149934.1838693752</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I205" t="n">
+        <v>236</v>
+      </c>
+      <c r="J205" t="n">
+        <v>228</v>
+      </c>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7275,10 +7323,14 @@
         <v>-148684.1838693752</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I206" t="n">
+        <v>238</v>
+      </c>
+      <c r="J206" t="n">
+        <v>228</v>
+      </c>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7315,7 +7367,9 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>228</v>
+      </c>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7352,7 +7406,9 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>228</v>
+      </c>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7389,7 +7445,9 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>228</v>
+      </c>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7426,7 +7484,9 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>228</v>
+      </c>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7463,7 +7523,9 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>228</v>
+      </c>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7500,7 +7562,9 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>228</v>
+      </c>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7537,7 +7601,9 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>228</v>
+      </c>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7574,7 +7640,9 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>228</v>
+      </c>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7611,7 +7679,9 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>228</v>
+      </c>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7648,7 +7718,9 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>228</v>
+      </c>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7685,7 +7757,9 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>228</v>
+      </c>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7722,7 +7796,9 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>228</v>
+      </c>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7756,10 +7832,12 @@
         <v>-111605.3537693752</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>228</v>
+      </c>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7793,10 +7871,12 @@
         <v>-107236.3537693752</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>228</v>
+      </c>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7830,10 +7910,12 @@
         <v>-100293.3537693752</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>228</v>
+      </c>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7870,7 +7952,9 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>228</v>
+      </c>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7907,7 +7991,9 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>228</v>
+      </c>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7944,7 +8030,9 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>228</v>
+      </c>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7978,10 +8066,12 @@
         <v>-102695.1964693752</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>228</v>
+      </c>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8015,10 +8105,12 @@
         <v>-97797.77396937519</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>228</v>
+      </c>
       <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8052,10 +8144,12 @@
         <v>-97797.77396937519</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>228</v>
+      </c>
       <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8092,7 +8186,9 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>228</v>
+      </c>
       <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8129,7 +8225,9 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>228</v>
+      </c>
       <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8166,7 +8264,9 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>228</v>
+      </c>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8203,7 +8303,9 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>228</v>
+      </c>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8240,7 +8342,9 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>228</v>
+      </c>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8277,7 +8381,9 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>228</v>
+      </c>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8314,7 +8420,9 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>228</v>
+      </c>
       <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8351,7 +8459,9 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>228</v>
+      </c>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8388,7 +8498,9 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>228</v>
+      </c>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8425,7 +8537,9 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>228</v>
+      </c>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8462,7 +8576,9 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>228</v>
+      </c>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8499,7 +8615,9 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>228</v>
+      </c>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8536,7 +8654,9 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>228</v>
+      </c>
       <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8573,7 +8693,9 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>228</v>
+      </c>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8610,7 +8732,9 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>228</v>
+      </c>
       <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8647,7 +8771,9 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>228</v>
+      </c>
       <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8684,7 +8810,9 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>228</v>
+      </c>
       <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8721,7 +8849,9 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>228</v>
+      </c>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8758,7 +8888,9 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>228</v>
+      </c>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8795,7 +8927,9 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>228</v>
+      </c>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8832,7 +8966,9 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>228</v>
+      </c>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8869,7 +9005,9 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>228</v>
+      </c>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8906,7 +9044,9 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>228</v>
+      </c>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8943,7 +9083,9 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>228</v>
+      </c>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8980,7 +9122,9 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>228</v>
+      </c>
       <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9017,7 +9161,9 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>228</v>
+      </c>
       <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9054,7 +9200,9 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>228</v>
+      </c>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9091,7 +9239,9 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>228</v>
+      </c>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9128,7 +9278,9 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>228</v>
+      </c>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9165,7 +9317,9 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>228</v>
+      </c>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9202,7 +9356,9 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>228</v>
+      </c>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9239,7 +9395,9 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>228</v>
+      </c>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9276,7 +9434,9 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>228</v>
+      </c>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9313,7 +9473,9 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>228</v>
+      </c>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9350,7 +9512,9 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>228</v>
+      </c>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9387,7 +9551,9 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>228</v>
+      </c>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9424,7 +9590,9 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>228</v>
+      </c>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9461,7 +9629,9 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>228</v>
+      </c>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9498,7 +9668,9 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>228</v>
+      </c>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9535,7 +9707,9 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>228</v>
+      </c>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9572,7 +9746,9 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>228</v>
+      </c>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9609,7 +9785,9 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>228</v>
+      </c>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9646,7 +9824,9 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>228</v>
+      </c>
       <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9683,7 +9863,9 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>228</v>
+      </c>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9720,7 +9902,9 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>228</v>
+      </c>
       <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9757,7 +9941,9 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>228</v>
+      </c>
       <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9794,7 +9980,9 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>228</v>
+      </c>
       <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9831,7 +10019,9 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>228</v>
+      </c>
       <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9868,7 +10058,9 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>228</v>
+      </c>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9905,7 +10097,9 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>228</v>
+      </c>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9942,7 +10136,9 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>228</v>
+      </c>
       <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9979,7 +10175,9 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>228</v>
+      </c>
       <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10016,7 +10214,9 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>228</v>
+      </c>
       <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10053,7 +10253,9 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>228</v>
+      </c>
       <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10090,7 +10292,9 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>228</v>
+      </c>
       <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10127,7 +10331,9 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>228</v>
+      </c>
       <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10164,7 +10370,9 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>228</v>
+      </c>
       <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10201,7 +10409,9 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>228</v>
+      </c>
       <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10238,7 +10448,9 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>228</v>
+      </c>
       <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10275,7 +10487,9 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>228</v>
+      </c>
       <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10312,7 +10526,9 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>228</v>
+      </c>
       <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10349,7 +10565,9 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>228</v>
+      </c>
       <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10386,7 +10604,9 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>228</v>
+      </c>
       <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10423,7 +10643,9 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>228</v>
+      </c>
       <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10460,7 +10682,9 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>228</v>
+      </c>
       <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10497,7 +10721,9 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>228</v>
+      </c>
       <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10534,7 +10760,9 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>228</v>
+      </c>
       <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10571,7 +10799,9 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>228</v>
+      </c>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10608,7 +10838,9 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>228</v>
+      </c>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10645,7 +10877,9 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>228</v>
+      </c>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10682,7 +10916,9 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>228</v>
+      </c>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10719,7 +10955,9 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>228</v>
+      </c>
       <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10756,7 +10994,9 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>228</v>
+      </c>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10793,7 +11033,9 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>228</v>
+      </c>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10830,7 +11072,9 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>228</v>
+      </c>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10867,7 +11111,9 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>228</v>
+      </c>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10904,7 +11150,9 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>228</v>
+      </c>
       <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10941,7 +11189,9 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>228</v>
+      </c>
       <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10978,7 +11228,9 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>228</v>
+      </c>
       <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11015,7 +11267,9 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>228</v>
+      </c>
       <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11052,7 +11306,9 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>228</v>
+      </c>
       <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11089,7 +11345,9 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>228</v>
+      </c>
       <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11126,7 +11384,9 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>228</v>
+      </c>
       <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11163,7 +11423,9 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>228</v>
+      </c>
       <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11200,7 +11462,9 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>228</v>
+      </c>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11237,7 +11501,9 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>228</v>
+      </c>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11274,7 +11540,9 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>228</v>
+      </c>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11311,7 +11579,9 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>228</v>
+      </c>
       <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11348,7 +11618,9 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>228</v>
+      </c>
       <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11385,7 +11657,9 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>228</v>
+      </c>
       <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11422,7 +11696,9 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>228</v>
+      </c>
       <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11459,7 +11735,9 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>228</v>
+      </c>
       <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11496,7 +11774,9 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>228</v>
+      </c>
       <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11533,7 +11813,9 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>228</v>
+      </c>
       <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11570,7 +11852,9 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>228</v>
+      </c>
       <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11607,7 +11891,9 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>228</v>
+      </c>
       <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11644,7 +11930,9 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>228</v>
+      </c>
       <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11681,7 +11969,9 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>228</v>
+      </c>
       <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11718,7 +12008,9 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>228</v>
+      </c>
       <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11755,7 +12047,9 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>228</v>
+      </c>
       <c r="K327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11792,7 +12086,9 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>228</v>
+      </c>
       <c r="K328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11829,7 +12125,9 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>228</v>
+      </c>
       <c r="K329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11866,7 +12164,9 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>228</v>
+      </c>
       <c r="K330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11903,7 +12203,9 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>228</v>
+      </c>
       <c r="K331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11940,7 +12242,9 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>228</v>
+      </c>
       <c r="K332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11977,7 +12281,9 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>228</v>
+      </c>
       <c r="K333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12014,7 +12320,9 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>228</v>
+      </c>
       <c r="K334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12051,7 +12359,9 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>228</v>
+      </c>
       <c r="K335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12088,7 +12398,9 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>228</v>
+      </c>
       <c r="K336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12125,7 +12437,9 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>228</v>
+      </c>
       <c r="K337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12162,7 +12476,9 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>228</v>
+      </c>
       <c r="K338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12199,7 +12515,9 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>228</v>
+      </c>
       <c r="K339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12236,7 +12554,9 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>228</v>
+      </c>
       <c r="K340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12273,7 +12593,9 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>228</v>
+      </c>
       <c r="K341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12310,7 +12632,9 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>228</v>
+      </c>
       <c r="K342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12347,7 +12671,9 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>228</v>
+      </c>
       <c r="K343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12384,7 +12710,9 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>228</v>
+      </c>
       <c r="K344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12421,7 +12749,9 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>228</v>
+      </c>
       <c r="K345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12458,7 +12788,9 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>228</v>
+      </c>
       <c r="K346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12495,7 +12827,9 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>228</v>
+      </c>
       <c r="K347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12529,10 +12863,12 @@
         <v>-78462.76319735889</v>
       </c>
       <c r="H348" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>228</v>
+      </c>
       <c r="K348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12569,7 +12905,9 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>228</v>
+      </c>
       <c r="K349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12606,7 +12944,9 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>228</v>
+      </c>
       <c r="K350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12640,10 +12980,12 @@
         <v>-81462.76319735889</v>
       </c>
       <c r="H351" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>228</v>
+      </c>
       <c r="K351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12677,10 +13019,12 @@
         <v>-81462.76319735889</v>
       </c>
       <c r="H352" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>228</v>
+      </c>
       <c r="K352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12714,10 +13058,12 @@
         <v>-86411.11669735888</v>
       </c>
       <c r="H353" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>228</v>
+      </c>
       <c r="K353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12751,10 +13097,12 @@
         <v>-86411.11669735888</v>
       </c>
       <c r="H354" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>228</v>
+      </c>
       <c r="K354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12788,10 +13136,12 @@
         <v>-86411.11669735888</v>
       </c>
       <c r="H355" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>228</v>
+      </c>
       <c r="K355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12825,10 +13175,12 @@
         <v>-87099.57639735889</v>
       </c>
       <c r="H356" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>228</v>
+      </c>
       <c r="K356" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12862,10 +13214,12 @@
         <v>-87456.79169735889</v>
       </c>
       <c r="H357" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>228</v>
+      </c>
       <c r="K357" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12899,10 +13253,12 @@
         <v>-87456.79169735889</v>
       </c>
       <c r="H358" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>228</v>
+      </c>
       <c r="K358" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12936,10 +13292,12 @@
         <v>-91260.10419735889</v>
       </c>
       <c r="H359" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>228</v>
+      </c>
       <c r="K359" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12973,10 +13331,12 @@
         <v>-91260.10419735889</v>
       </c>
       <c r="H360" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>228</v>
+      </c>
       <c r="K360" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13010,10 +13370,12 @@
         <v>-91337.47749735889</v>
       </c>
       <c r="H361" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>228</v>
+      </c>
       <c r="K361" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13047,10 +13409,12 @@
         <v>-91262.72619735889</v>
       </c>
       <c r="H362" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>228</v>
+      </c>
       <c r="K362" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13084,10 +13448,12 @@
         <v>-92662.72619735889</v>
       </c>
       <c r="H363" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>228</v>
+      </c>
       <c r="K363" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13121,10 +13487,12 @@
         <v>-92662.72619735889</v>
       </c>
       <c r="H364" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>228</v>
+      </c>
       <c r="K364" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13158,10 +13526,12 @@
         <v>-93162.72619735889</v>
       </c>
       <c r="H365" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>228</v>
+      </c>
       <c r="K365" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13195,10 +13565,12 @@
         <v>-92830.24299735889</v>
       </c>
       <c r="H366" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>228</v>
+      </c>
       <c r="K366" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13232,10 +13604,12 @@
         <v>-92855.24299735889</v>
       </c>
       <c r="H367" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>228</v>
+      </c>
       <c r="K367" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13272,7 +13646,9 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>228</v>
+      </c>
       <c r="K368" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13309,7 +13685,9 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>228</v>
+      </c>
       <c r="K369" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13346,7 +13724,9 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>228</v>
+      </c>
       <c r="K370" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13380,10 +13760,12 @@
         <v>-95193.86709735889</v>
       </c>
       <c r="H371" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>228</v>
+      </c>
       <c r="K371" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13417,10 +13799,12 @@
         <v>-95983.60659735888</v>
       </c>
       <c r="H372" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>228</v>
+      </c>
       <c r="K372" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13454,10 +13838,12 @@
         <v>-94350.84059735888</v>
       </c>
       <c r="H373" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>228</v>
+      </c>
       <c r="K373" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13491,10 +13877,12 @@
         <v>-94739.32679735888</v>
       </c>
       <c r="H374" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>228</v>
+      </c>
       <c r="K374" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13528,10 +13916,12 @@
         <v>-99484.09219735888</v>
       </c>
       <c r="H375" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>228</v>
+      </c>
       <c r="K375" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13565,10 +13955,12 @@
         <v>-99209.17659735889</v>
       </c>
       <c r="H376" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>228</v>
+      </c>
       <c r="K376" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13602,10 +13994,12 @@
         <v>-108615.7137973589</v>
       </c>
       <c r="H377" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>228</v>
+      </c>
       <c r="K377" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13639,10 +14033,12 @@
         <v>-108615.7137973589</v>
       </c>
       <c r="H378" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>228</v>
+      </c>
       <c r="K378" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13676,10 +14072,12 @@
         <v>-108615.7137973589</v>
       </c>
       <c r="H379" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>228</v>
+      </c>
       <c r="K379" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13713,10 +14111,12 @@
         <v>-111900.7137973589</v>
       </c>
       <c r="H380" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>228</v>
+      </c>
       <c r="K380" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13750,10 +14150,12 @@
         <v>-109288.8408973589</v>
       </c>
       <c r="H381" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>228</v>
+      </c>
       <c r="K381" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13787,10 +14189,12 @@
         <v>-111337.5408973589</v>
       </c>
       <c r="H382" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>228</v>
+      </c>
       <c r="K382" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13824,10 +14228,12 @@
         <v>-111337.5408973589</v>
       </c>
       <c r="H383" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>228</v>
+      </c>
       <c r="K383" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13861,10 +14267,12 @@
         <v>-111337.5408973589</v>
       </c>
       <c r="H384" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>228</v>
+      </c>
       <c r="K384" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13901,7 +14309,9 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>228</v>
+      </c>
       <c r="K385" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13938,7 +14348,9 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>228</v>
+      </c>
       <c r="K386" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13975,7 +14387,9 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>228</v>
+      </c>
       <c r="K387" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14012,7 +14426,9 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>228</v>
+      </c>
       <c r="K388" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14049,7 +14465,9 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>228</v>
+      </c>
       <c r="K389" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14086,7 +14504,9 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>228</v>
+      </c>
       <c r="K390" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14123,7 +14543,9 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>228</v>
+      </c>
       <c r="K391" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14160,7 +14582,9 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>228</v>
+      </c>
       <c r="K392" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14197,7 +14621,9 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>228</v>
+      </c>
       <c r="K393" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14234,7 +14660,9 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>228</v>
+      </c>
       <c r="K394" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14271,7 +14699,9 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>228</v>
+      </c>
       <c r="K395" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14308,7 +14738,9 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>228</v>
+      </c>
       <c r="K396" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14345,7 +14777,9 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>228</v>
+      </c>
       <c r="K397" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14379,10 +14813,12 @@
         <v>-109956.6870973589</v>
       </c>
       <c r="H398" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>228</v>
+      </c>
       <c r="K398" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14416,10 +14852,12 @@
         <v>-111469.6870973589</v>
       </c>
       <c r="H399" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>228</v>
+      </c>
       <c r="K399" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14456,7 +14894,9 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>228</v>
+      </c>
       <c r="K400" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14493,7 +14933,9 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>228</v>
+      </c>
       <c r="K401" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14527,10 +14969,12 @@
         <v>-110713.9596973589</v>
       </c>
       <c r="H402" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>228</v>
+      </c>
       <c r="K402" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14564,10 +15008,12 @@
         <v>-110713.9596973589</v>
       </c>
       <c r="H403" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>228</v>
+      </c>
       <c r="K403" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14601,10 +15047,12 @@
         <v>-110768.9596973589</v>
       </c>
       <c r="H404" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>228</v>
+      </c>
       <c r="K404" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14641,7 +15089,9 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>228</v>
+      </c>
       <c r="K405" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14678,7 +15128,9 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>228</v>
+      </c>
       <c r="K406" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14715,7 +15167,9 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>228</v>
+      </c>
       <c r="K407" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14752,7 +15206,9 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>228</v>
+      </c>
       <c r="K408" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14789,7 +15245,9 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>228</v>
+      </c>
       <c r="K409" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14826,7 +15284,9 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>228</v>
+      </c>
       <c r="K410" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14863,7 +15323,9 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>228</v>
+      </c>
       <c r="K411" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14900,7 +15362,9 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>228</v>
+      </c>
       <c r="K412" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14937,7 +15401,9 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>228</v>
+      </c>
       <c r="K413" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14971,10 +15437,12 @@
         <v>-110695.2602973589</v>
       </c>
       <c r="H414" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>228</v>
+      </c>
       <c r="K414" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14986,6 +15454,6 @@
       <c r="M414" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-13 BackTest ABT.xlsx
+++ b/BackTest/2019-11-13 BackTest ABT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>68503.81662028986</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>68878.0099657111</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>45870.8628657111</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>45870.8628657111</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>42105.7695657111</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>43409.8726657111</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>42686.6649657111</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>35579.9483657111</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>47443.6064657111</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>45333.1144657111</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>45333.1144657111</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>45574.0868657111</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>44829.2131657111</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>33797.4456657111</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>33797.4456657111</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>33247.4456657111</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>38561.0915657111</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>38561.0915657111</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>27381.6278657111</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>27381.6278657111</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>25119.9951657111</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>27156.5196657111</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>27158.5196657111</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>25491.5080657111</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>25491.5080657111</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>33398.25554806404</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>31841.25554806404</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>39226.26534806404</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>24244.22738421788</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>24244.22738421788</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>25452.22738421788</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>25455.22738421788</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>23592.30578421788</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -6589,14 +6589,10 @@
         <v>-132681.9627279959</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
-      </c>
-      <c r="I188" t="n">
-        <v>228</v>
-      </c>
-      <c r="J188" t="n">
-        <v>228</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
@@ -6626,60 +6622,50 @@
         <v>-132681.9627279959</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
-      </c>
-      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
         <v>228</v>
       </c>
-      <c r="J189" t="n">
+      <c r="C190" t="n">
+        <v>226</v>
+      </c>
+      <c r="D190" t="n">
+        <v>229</v>
+      </c>
+      <c r="E190" t="n">
+        <v>226</v>
+      </c>
+      <c r="F190" t="n">
+        <v>1079.7485</v>
+      </c>
+      <c r="G190" t="n">
+        <v>-133761.7112279959</v>
+      </c>
+      <c r="H190" t="n">
+        <v>1</v>
+      </c>
+      <c r="I190" t="n">
         <v>228</v>
       </c>
-      <c r="K189" t="inlineStr">
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>228</v>
-      </c>
-      <c r="C190" t="n">
-        <v>226</v>
-      </c>
-      <c r="D190" t="n">
-        <v>229</v>
-      </c>
-      <c r="E190" t="n">
-        <v>226</v>
-      </c>
-      <c r="F190" t="n">
-        <v>1079.7485</v>
-      </c>
-      <c r="G190" t="n">
-        <v>-133761.7112279959</v>
-      </c>
-      <c r="H190" t="n">
-        <v>1</v>
-      </c>
-      <c r="I190" t="n">
-        <v>228</v>
-      </c>
-      <c r="J190" t="n">
-        <v>228</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6713,9 +6699,7 @@
       <c r="I191" t="n">
         <v>226</v>
       </c>
-      <c r="J191" t="n">
-        <v>228</v>
-      </c>
+      <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6754,9 +6738,7 @@
       <c r="I192" t="n">
         <v>227</v>
       </c>
-      <c r="J192" t="n">
-        <v>228</v>
-      </c>
+      <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6795,9 +6777,7 @@
       <c r="I193" t="n">
         <v>227</v>
       </c>
-      <c r="J193" t="n">
-        <v>228</v>
-      </c>
+      <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6836,9 +6816,7 @@
       <c r="I194" t="n">
         <v>229</v>
       </c>
-      <c r="J194" t="n">
-        <v>228</v>
-      </c>
+      <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6877,9 +6855,7 @@
       <c r="I195" t="n">
         <v>232</v>
       </c>
-      <c r="J195" t="n">
-        <v>228</v>
-      </c>
+      <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6918,9 +6894,7 @@
       <c r="I196" t="n">
         <v>228</v>
       </c>
-      <c r="J196" t="n">
-        <v>228</v>
-      </c>
+      <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6959,9 +6933,7 @@
       <c r="I197" t="n">
         <v>230</v>
       </c>
-      <c r="J197" t="n">
-        <v>228</v>
-      </c>
+      <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6995,14 +6967,10 @@
         <v>-149423.9558693752</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
-      </c>
-      <c r="I198" t="n">
-        <v>225</v>
-      </c>
-      <c r="J198" t="n">
-        <v>228</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7036,14 +7004,10 @@
         <v>-149423.9558693752</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
-      </c>
-      <c r="I199" t="n">
-        <v>231</v>
-      </c>
-      <c r="J199" t="n">
-        <v>228</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7077,14 +7041,10 @@
         <v>-149419.5558693752</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
-      </c>
-      <c r="I200" t="n">
-        <v>231</v>
-      </c>
-      <c r="J200" t="n">
-        <v>228</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7118,14 +7078,10 @@
         <v>-151520.7918693752</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
-      </c>
-      <c r="I201" t="n">
-        <v>232</v>
-      </c>
-      <c r="J201" t="n">
-        <v>228</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7159,14 +7115,10 @@
         <v>-150648.6912693752</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
-      </c>
-      <c r="I202" t="n">
-        <v>228</v>
-      </c>
-      <c r="J202" t="n">
-        <v>228</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7200,14 +7152,10 @@
         <v>-157513.8412693752</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
-      </c>
-      <c r="I203" t="n">
-        <v>229</v>
-      </c>
-      <c r="J203" t="n">
-        <v>228</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7241,14 +7189,10 @@
         <v>-157046.9132693752</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
-      </c>
-      <c r="I204" t="n">
-        <v>225</v>
-      </c>
-      <c r="J204" t="n">
-        <v>228</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7282,14 +7226,10 @@
         <v>-149934.1838693752</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
-      </c>
-      <c r="I205" t="n">
-        <v>236</v>
-      </c>
-      <c r="J205" t="n">
-        <v>228</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7323,14 +7263,10 @@
         <v>-148684.1838693752</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
-      </c>
-      <c r="I206" t="n">
-        <v>238</v>
-      </c>
-      <c r="J206" t="n">
-        <v>228</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7367,9 +7303,7 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>228</v>
-      </c>
+      <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7406,9 +7340,7 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>228</v>
-      </c>
+      <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7445,9 +7377,7 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>228</v>
-      </c>
+      <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7484,9 +7414,7 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>228</v>
-      </c>
+      <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7523,9 +7451,7 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>228</v>
-      </c>
+      <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7562,9 +7488,7 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>228</v>
-      </c>
+      <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7601,9 +7525,7 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>228</v>
-      </c>
+      <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7640,9 +7562,7 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>228</v>
-      </c>
+      <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7679,9 +7599,7 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>228</v>
-      </c>
+      <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7718,9 +7636,7 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>228</v>
-      </c>
+      <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7757,9 +7673,7 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>228</v>
-      </c>
+      <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7796,9 +7710,7 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>228</v>
-      </c>
+      <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7835,9 +7747,7 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>228</v>
-      </c>
+      <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7874,9 +7784,7 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>228</v>
-      </c>
+      <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7913,9 +7821,7 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>228</v>
-      </c>
+      <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7952,9 +7858,7 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>228</v>
-      </c>
+      <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7991,9 +7895,7 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>228</v>
-      </c>
+      <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8030,9 +7932,7 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>228</v>
-      </c>
+      <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8069,9 +7969,7 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>228</v>
-      </c>
+      <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8108,9 +8006,7 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>228</v>
-      </c>
+      <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8147,9 +8043,7 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>228</v>
-      </c>
+      <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8186,9 +8080,7 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>228</v>
-      </c>
+      <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8225,9 +8117,7 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>228</v>
-      </c>
+      <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8264,9 +8154,7 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>228</v>
-      </c>
+      <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8303,9 +8191,7 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>228</v>
-      </c>
+      <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8342,9 +8228,7 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>228</v>
-      </c>
+      <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8378,20 +8262,16 @@
         <v>-96783.9474693752</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>228</v>
-      </c>
+      <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
+      <c r="L233" t="inlineStr"/>
       <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
@@ -8420,14 +8300,8 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>228</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8459,14 +8333,8 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>228</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8498,14 +8366,8 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>228</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8537,14 +8399,8 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>228</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8573,17 +8429,11 @@
         <v>-113758.2793693752</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>228</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8612,17 +8462,11 @@
         <v>-113758.2793693752</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>228</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8651,17 +8495,11 @@
         <v>-112008.2793693752</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>228</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8690,17 +8528,11 @@
         <v>-112285.8870693752</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>228</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8729,17 +8561,11 @@
         <v>-112145.8870693752</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>228</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8768,17 +8594,11 @@
         <v>-111927.8870693752</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>228</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8807,17 +8627,11 @@
         <v>-111927.8870693752</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>228</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8846,17 +8660,11 @@
         <v>-113677.8870693752</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>228</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8885,17 +8693,11 @@
         <v>-113427.8870693752</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>228</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8924,17 +8726,11 @@
         <v>-112138.2052693752</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>228</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8963,17 +8759,11 @@
         <v>-113201.2052693752</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>228</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9002,17 +8792,11 @@
         <v>-113095.2074693752</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>228</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9041,17 +8825,11 @@
         <v>-113095.3823693752</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>228</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9080,17 +8858,11 @@
         <v>-111011.1889693752</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>228</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9119,17 +8891,11 @@
         <v>-111151.4891693752</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>228</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9158,17 +8924,11 @@
         <v>-111290.2531693752</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>228</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9197,17 +8957,11 @@
         <v>-111290.2531693752</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>228</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9236,17 +8990,11 @@
         <v>-111663.1234693752</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>228</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9275,17 +9023,11 @@
         <v>-117131.8186693752</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>228</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9314,17 +9056,11 @@
         <v>-115756.3415693752</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>228</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9353,17 +9089,11 @@
         <v>-118656.3415693752</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>228</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9395,14 +9125,8 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>228</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9431,17 +9155,11 @@
         <v>-116270.3415693752</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>228</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9473,14 +9191,8 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>228</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9512,14 +9224,8 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>228</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9551,14 +9257,8 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>228</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9590,14 +9290,8 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>228</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9629,14 +9323,8 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>228</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9668,14 +9356,8 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>228</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9707,14 +9389,8 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>228</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9746,14 +9422,8 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>228</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9785,14 +9455,8 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>228</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9824,14 +9488,8 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>228</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9863,14 +9521,8 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>228</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9902,14 +9554,8 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>228</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9941,14 +9587,8 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>228</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9980,14 +9620,8 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>228</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10019,14 +9653,8 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>228</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10058,14 +9686,8 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>228</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10097,14 +9719,8 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>228</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10136,14 +9752,8 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>228</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10175,14 +9785,8 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>228</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10214,14 +9818,8 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>228</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10253,14 +9851,8 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>228</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10292,14 +9884,8 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>228</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10331,14 +9917,8 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>228</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10370,14 +9950,8 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>228</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10409,14 +9983,8 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>228</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10448,14 +10016,8 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>228</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10487,14 +10049,8 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>228</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10526,14 +10082,8 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>228</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10565,14 +10115,8 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>228</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10604,14 +10148,8 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>228</v>
-      </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10643,14 +10181,8 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>228</v>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10682,14 +10214,8 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>228</v>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10721,14 +10247,8 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>228</v>
-      </c>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10760,14 +10280,8 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>228</v>
-      </c>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10799,14 +10313,8 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>228</v>
-      </c>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10838,14 +10346,8 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>228</v>
-      </c>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10877,14 +10379,8 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>228</v>
-      </c>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10916,14 +10412,8 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>228</v>
-      </c>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10955,14 +10445,8 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>228</v>
-      </c>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10994,14 +10478,8 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>228</v>
-      </c>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11033,14 +10511,8 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>228</v>
-      </c>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11072,14 +10544,8 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>228</v>
-      </c>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11111,14 +10577,8 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>228</v>
-      </c>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11150,14 +10610,8 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>228</v>
-      </c>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11189,14 +10643,8 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>228</v>
-      </c>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11228,14 +10676,8 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>228</v>
-      </c>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11267,14 +10709,8 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>228</v>
-      </c>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11306,14 +10742,8 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>228</v>
-      </c>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11345,14 +10775,8 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>228</v>
-      </c>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11384,14 +10808,8 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>228</v>
-      </c>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11423,14 +10841,8 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>228</v>
-      </c>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11462,14 +10874,8 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>228</v>
-      </c>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11501,14 +10907,8 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>228</v>
-      </c>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11540,14 +10940,8 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>228</v>
-      </c>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11579,14 +10973,8 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>228</v>
-      </c>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11618,14 +11006,8 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>228</v>
-      </c>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11657,14 +11039,8 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>228</v>
-      </c>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11696,14 +11072,8 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>228</v>
-      </c>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11735,14 +11105,8 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>228</v>
-      </c>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11774,14 +11138,8 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>228</v>
-      </c>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11813,14 +11171,8 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>228</v>
-      </c>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11852,14 +11204,8 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>228</v>
-      </c>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11891,14 +11237,8 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>228</v>
-      </c>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11930,14 +11270,8 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>228</v>
-      </c>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11969,14 +11303,8 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>228</v>
-      </c>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -12008,14 +11336,8 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>228</v>
-      </c>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -12047,14 +11369,8 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>228</v>
-      </c>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J327" t="inlineStr"/>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -12086,14 +11402,8 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>228</v>
-      </c>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12125,14 +11435,8 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>228</v>
-      </c>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J329" t="inlineStr"/>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12164,14 +11468,8 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>228</v>
-      </c>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J330" t="inlineStr"/>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12203,14 +11501,8 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
-        <v>228</v>
-      </c>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J331" t="inlineStr"/>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12242,14 +11534,8 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="n">
-        <v>228</v>
-      </c>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J332" t="inlineStr"/>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12281,14 +11567,8 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="n">
-        <v>228</v>
-      </c>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J333" t="inlineStr"/>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12320,14 +11600,8 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
-        <v>228</v>
-      </c>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J334" t="inlineStr"/>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12359,14 +11633,8 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="n">
-        <v>228</v>
-      </c>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J335" t="inlineStr"/>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12398,14 +11666,8 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="n">
-        <v>228</v>
-      </c>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J336" t="inlineStr"/>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12437,14 +11699,8 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="n">
-        <v>228</v>
-      </c>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J337" t="inlineStr"/>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12476,14 +11732,8 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="n">
-        <v>228</v>
-      </c>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J338" t="inlineStr"/>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12515,14 +11765,8 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="n">
-        <v>228</v>
-      </c>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J339" t="inlineStr"/>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12554,14 +11798,8 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="n">
-        <v>228</v>
-      </c>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J340" t="inlineStr"/>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12593,14 +11831,8 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="n">
-        <v>228</v>
-      </c>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J341" t="inlineStr"/>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12632,14 +11864,8 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="n">
-        <v>228</v>
-      </c>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J342" t="inlineStr"/>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12671,14 +11897,8 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="n">
-        <v>228</v>
-      </c>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J343" t="inlineStr"/>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12710,14 +11930,8 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="n">
-        <v>228</v>
-      </c>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J344" t="inlineStr"/>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12749,14 +11963,8 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="n">
-        <v>228</v>
-      </c>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J345" t="inlineStr"/>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12788,14 +11996,8 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="n">
-        <v>228</v>
-      </c>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J346" t="inlineStr"/>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12827,14 +12029,8 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="n">
-        <v>228</v>
-      </c>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J347" t="inlineStr"/>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12866,14 +12062,8 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="n">
-        <v>228</v>
-      </c>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J348" t="inlineStr"/>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12905,14 +12095,8 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="n">
-        <v>228</v>
-      </c>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J349" t="inlineStr"/>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12944,14 +12128,8 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="n">
-        <v>228</v>
-      </c>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J350" t="inlineStr"/>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12983,14 +12161,8 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="n">
-        <v>228</v>
-      </c>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J351" t="inlineStr"/>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -13022,14 +12194,8 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="n">
-        <v>228</v>
-      </c>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J352" t="inlineStr"/>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -13061,14 +12227,8 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="n">
-        <v>228</v>
-      </c>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J353" t="inlineStr"/>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -13100,14 +12260,8 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="n">
-        <v>228</v>
-      </c>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J354" t="inlineStr"/>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -13139,14 +12293,8 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="n">
-        <v>228</v>
-      </c>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J355" t="inlineStr"/>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -13178,14 +12326,8 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="n">
-        <v>228</v>
-      </c>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J356" t="inlineStr"/>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -13217,14 +12359,8 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="n">
-        <v>228</v>
-      </c>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J357" t="inlineStr"/>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -13256,14 +12392,8 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="n">
-        <v>228</v>
-      </c>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J358" t="inlineStr"/>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -13295,14 +12425,8 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="n">
-        <v>228</v>
-      </c>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J359" t="inlineStr"/>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13334,14 +12458,8 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="n">
-        <v>228</v>
-      </c>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J360" t="inlineStr"/>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13373,14 +12491,8 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="n">
-        <v>228</v>
-      </c>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J361" t="inlineStr"/>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13412,14 +12524,8 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="n">
-        <v>228</v>
-      </c>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J362" t="inlineStr"/>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13451,14 +12557,8 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="n">
-        <v>228</v>
-      </c>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J363" t="inlineStr"/>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13490,14 +12590,8 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="n">
-        <v>228</v>
-      </c>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J364" t="inlineStr"/>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13529,14 +12623,8 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="n">
-        <v>228</v>
-      </c>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J365" t="inlineStr"/>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13568,14 +12656,8 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="n">
-        <v>228</v>
-      </c>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J366" t="inlineStr"/>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13607,14 +12689,8 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="n">
-        <v>228</v>
-      </c>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J367" t="inlineStr"/>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13646,14 +12722,8 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="n">
-        <v>228</v>
-      </c>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J368" t="inlineStr"/>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13685,14 +12755,8 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="n">
-        <v>228</v>
-      </c>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J369" t="inlineStr"/>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13724,14 +12788,8 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="n">
-        <v>228</v>
-      </c>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J370" t="inlineStr"/>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13763,14 +12821,8 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="n">
-        <v>228</v>
-      </c>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J371" t="inlineStr"/>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13802,14 +12854,8 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="n">
-        <v>228</v>
-      </c>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J372" t="inlineStr"/>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13838,15 +12884,15 @@
         <v>-94350.84059735888</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
-      </c>
-      <c r="I373" t="inlineStr"/>
-      <c r="J373" t="n">
-        <v>228</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I373" t="n">
+        <v>230</v>
+      </c>
+      <c r="J373" t="inlineStr"/>
       <c r="K373" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L373" t="n">
@@ -13880,9 +12926,7 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="n">
-        <v>228</v>
-      </c>
+      <c r="J374" t="inlineStr"/>
       <c r="K374" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13919,9 +12963,7 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="n">
-        <v>228</v>
-      </c>
+      <c r="J375" t="inlineStr"/>
       <c r="K375" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13958,9 +13000,7 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="n">
-        <v>228</v>
-      </c>
+      <c r="J376" t="inlineStr"/>
       <c r="K376" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13997,9 +13037,7 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="n">
-        <v>228</v>
-      </c>
+      <c r="J377" t="inlineStr"/>
       <c r="K377" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14036,9 +13074,7 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="n">
-        <v>228</v>
-      </c>
+      <c r="J378" t="inlineStr"/>
       <c r="K378" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14075,9 +13111,7 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="n">
-        <v>228</v>
-      </c>
+      <c r="J379" t="inlineStr"/>
       <c r="K379" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14114,9 +13148,7 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="n">
-        <v>228</v>
-      </c>
+      <c r="J380" t="inlineStr"/>
       <c r="K380" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14153,9 +13185,7 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="n">
-        <v>228</v>
-      </c>
+      <c r="J381" t="inlineStr"/>
       <c r="K381" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14192,9 +13222,7 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="n">
-        <v>228</v>
-      </c>
+      <c r="J382" t="inlineStr"/>
       <c r="K382" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14231,9 +13259,7 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="n">
-        <v>228</v>
-      </c>
+      <c r="J383" t="inlineStr"/>
       <c r="K383" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14270,9 +13296,7 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="n">
-        <v>228</v>
-      </c>
+      <c r="J384" t="inlineStr"/>
       <c r="K384" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14309,9 +13333,7 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="n">
-        <v>228</v>
-      </c>
+      <c r="J385" t="inlineStr"/>
       <c r="K385" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14348,9 +13370,7 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="n">
-        <v>228</v>
-      </c>
+      <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14387,9 +13407,7 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="n">
-        <v>228</v>
-      </c>
+      <c r="J387" t="inlineStr"/>
       <c r="K387" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14426,9 +13444,7 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="n">
-        <v>228</v>
-      </c>
+      <c r="J388" t="inlineStr"/>
       <c r="K388" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14465,9 +13481,7 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="n">
-        <v>228</v>
-      </c>
+      <c r="J389" t="inlineStr"/>
       <c r="K389" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14504,9 +13518,7 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="n">
-        <v>228</v>
-      </c>
+      <c r="J390" t="inlineStr"/>
       <c r="K390" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14543,9 +13555,7 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="n">
-        <v>228</v>
-      </c>
+      <c r="J391" t="inlineStr"/>
       <c r="K391" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14582,9 +13592,7 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="n">
-        <v>228</v>
-      </c>
+      <c r="J392" t="inlineStr"/>
       <c r="K392" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14621,9 +13629,7 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="n">
-        <v>228</v>
-      </c>
+      <c r="J393" t="inlineStr"/>
       <c r="K393" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14660,9 +13666,7 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="n">
-        <v>228</v>
-      </c>
+      <c r="J394" t="inlineStr"/>
       <c r="K394" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14699,9 +13703,7 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="n">
-        <v>228</v>
-      </c>
+      <c r="J395" t="inlineStr"/>
       <c r="K395" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14738,9 +13740,7 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="n">
-        <v>228</v>
-      </c>
+      <c r="J396" t="inlineStr"/>
       <c r="K396" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14777,9 +13777,7 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="n">
-        <v>228</v>
-      </c>
+      <c r="J397" t="inlineStr"/>
       <c r="K397" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14816,9 +13814,7 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="n">
-        <v>228</v>
-      </c>
+      <c r="J398" t="inlineStr"/>
       <c r="K398" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14855,9 +13851,7 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="n">
-        <v>228</v>
-      </c>
+      <c r="J399" t="inlineStr"/>
       <c r="K399" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14894,9 +13888,7 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="n">
-        <v>228</v>
-      </c>
+      <c r="J400" t="inlineStr"/>
       <c r="K400" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14933,9 +13925,7 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="n">
-        <v>228</v>
-      </c>
+      <c r="J401" t="inlineStr"/>
       <c r="K401" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14972,9 +13962,7 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="n">
-        <v>228</v>
-      </c>
+      <c r="J402" t="inlineStr"/>
       <c r="K402" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15011,9 +13999,7 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="n">
-        <v>228</v>
-      </c>
+      <c r="J403" t="inlineStr"/>
       <c r="K403" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15050,9 +14036,7 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="n">
-        <v>228</v>
-      </c>
+      <c r="J404" t="inlineStr"/>
       <c r="K404" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15089,9 +14073,7 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="n">
-        <v>228</v>
-      </c>
+      <c r="J405" t="inlineStr"/>
       <c r="K405" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15128,9 +14110,7 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="n">
-        <v>228</v>
-      </c>
+      <c r="J406" t="inlineStr"/>
       <c r="K406" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15167,9 +14147,7 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="n">
-        <v>228</v>
-      </c>
+      <c r="J407" t="inlineStr"/>
       <c r="K407" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15206,9 +14184,7 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="n">
-        <v>228</v>
-      </c>
+      <c r="J408" t="inlineStr"/>
       <c r="K408" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15245,9 +14221,7 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="n">
-        <v>228</v>
-      </c>
+      <c r="J409" t="inlineStr"/>
       <c r="K409" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15284,9 +14258,7 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="n">
-        <v>228</v>
-      </c>
+      <c r="J410" t="inlineStr"/>
       <c r="K410" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15323,9 +14295,7 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="n">
-        <v>228</v>
-      </c>
+      <c r="J411" t="inlineStr"/>
       <c r="K411" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15362,9 +14332,7 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="n">
-        <v>228</v>
-      </c>
+      <c r="J412" t="inlineStr"/>
       <c r="K412" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15401,9 +14369,7 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="n">
-        <v>228</v>
-      </c>
+      <c r="J413" t="inlineStr"/>
       <c r="K413" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15440,9 +14406,7 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="n">
-        <v>228</v>
-      </c>
+      <c r="J414" t="inlineStr"/>
       <c r="K414" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15454,6 +14418,6 @@
       <c r="M414" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-13 BackTest ABT.xlsx
+++ b/BackTest/2019-11-13 BackTest ABT.xlsx
@@ -451,7 +451,7 @@
         <v>68503.81662028986</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>68878.0099657111</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>45870.8628657111</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>45870.8628657111</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>42105.7695657111</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>43409.8726657111</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>42912.99976571109</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>42950.4529657111</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>35579.9483657111</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>78273.6649657111</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>48895.4748657111</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>47370.1120657111</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -6967,9 +6967,11 @@
         <v>-149423.9558693752</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I198" t="n">
+        <v>225</v>
+      </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr">
         <is>
@@ -7004,9 +7006,11 @@
         <v>-149423.9558693752</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I199" t="n">
+        <v>231</v>
+      </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr">
         <is>
@@ -7078,9 +7082,11 @@
         <v>-151520.7918693752</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I201" t="n">
+        <v>232</v>
+      </c>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr">
         <is>
@@ -7115,9 +7121,11 @@
         <v>-150648.6912693752</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I202" t="n">
+        <v>228</v>
+      </c>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr">
         <is>
@@ -7152,9 +7160,11 @@
         <v>-157513.8412693752</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I203" t="n">
+        <v>229</v>
+      </c>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr">
         <is>
@@ -7189,9 +7199,11 @@
         <v>-157046.9132693752</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I204" t="n">
+        <v>225</v>
+      </c>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr">
         <is>
@@ -7226,9 +7238,11 @@
         <v>-149934.1838693752</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I205" t="n">
+        <v>236</v>
+      </c>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr">
         <is>
@@ -7263,9 +7277,11 @@
         <v>-148684.1838693752</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I206" t="n">
+        <v>238</v>
+      </c>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr">
         <is>
@@ -7300,9 +7316,11 @@
         <v>-148800.5534693752</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I207" t="n">
+        <v>239</v>
+      </c>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr">
         <is>
@@ -7337,9 +7355,11 @@
         <v>-143867.5534693752</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I208" t="n">
+        <v>238</v>
+      </c>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr">
         <is>
@@ -7374,9 +7394,11 @@
         <v>-144961.8850693752</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I209" t="n">
+        <v>240</v>
+      </c>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr">
         <is>
@@ -7411,9 +7433,11 @@
         <v>-144961.8850693752</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I210" t="n">
+        <v>239</v>
+      </c>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr">
         <is>
@@ -7448,9 +7472,11 @@
         <v>-113717.8850693752</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I211" t="n">
+        <v>239</v>
+      </c>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr">
         <is>
@@ -8262,16 +8288,18 @@
         <v>-96783.9474693752</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L233" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
       <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
@@ -8301,7 +8329,11 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8334,7 +8366,11 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8367,7 +8403,11 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8400,7 +8440,11 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8429,11 +8473,15 @@
         <v>-113758.2793693752</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8462,11 +8510,15 @@
         <v>-113758.2793693752</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8495,11 +8547,15 @@
         <v>-112008.2793693752</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8528,11 +8584,15 @@
         <v>-112285.8870693752</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8561,11 +8621,15 @@
         <v>-112145.8870693752</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8594,11 +8658,15 @@
         <v>-111927.8870693752</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8627,11 +8695,15 @@
         <v>-111927.8870693752</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8660,11 +8732,15 @@
         <v>-113677.8870693752</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8693,11 +8769,15 @@
         <v>-113427.8870693752</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8726,11 +8806,15 @@
         <v>-112138.2052693752</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8759,11 +8843,15 @@
         <v>-113201.2052693752</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8792,11 +8880,15 @@
         <v>-113095.2074693752</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8825,11 +8917,15 @@
         <v>-113095.3823693752</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8858,11 +8954,15 @@
         <v>-111011.1889693752</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8891,11 +8991,15 @@
         <v>-111151.4891693752</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8924,11 +9028,15 @@
         <v>-111290.2531693752</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8957,11 +9065,15 @@
         <v>-111290.2531693752</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -8990,11 +9102,15 @@
         <v>-111663.1234693752</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9023,11 +9139,15 @@
         <v>-117131.8186693752</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9056,11 +9176,15 @@
         <v>-115756.3415693752</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9089,11 +9213,15 @@
         <v>-118656.3415693752</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9126,7 +9254,11 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9155,11 +9287,15 @@
         <v>-116270.3415693752</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9192,7 +9328,11 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9225,7 +9365,11 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9258,7 +9402,11 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9291,7 +9439,11 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9324,7 +9476,11 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9357,7 +9513,11 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9390,7 +9550,11 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9423,7 +9587,11 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9456,7 +9624,11 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9489,7 +9661,11 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9522,7 +9698,11 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9555,7 +9735,11 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9588,7 +9772,11 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9621,7 +9809,11 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9654,7 +9846,11 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9687,7 +9883,11 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9720,7 +9920,11 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9753,7 +9957,11 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9786,7 +9994,11 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9819,7 +10031,11 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9852,7 +10068,11 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9885,7 +10105,11 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -9918,7 +10142,11 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -9951,7 +10179,11 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -9984,7 +10216,11 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10017,7 +10253,11 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10050,7 +10290,11 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10083,7 +10327,11 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10116,7 +10364,11 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10149,7 +10401,11 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10182,7 +10438,11 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10215,7 +10475,11 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10248,7 +10512,11 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10281,7 +10549,11 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10314,7 +10586,11 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10347,7 +10623,11 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10380,7 +10660,11 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10413,7 +10697,11 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10446,7 +10734,11 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10479,7 +10771,11 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10512,7 +10808,11 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10545,7 +10845,11 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10578,7 +10882,11 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10611,7 +10919,11 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10644,7 +10956,11 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10677,7 +10993,11 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10710,7 +11030,11 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10743,7 +11067,11 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10776,7 +11104,11 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10809,7 +11141,11 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10842,7 +11178,11 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -10875,7 +11215,11 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -10908,7 +11252,11 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -10941,7 +11289,11 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -10974,7 +11326,11 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11007,7 +11363,11 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11040,7 +11400,11 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11073,7 +11437,11 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11106,7 +11474,11 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11139,7 +11511,11 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11172,7 +11548,11 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11205,7 +11585,11 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11238,7 +11622,11 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11271,7 +11659,11 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11304,7 +11696,11 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11337,7 +11733,11 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11370,7 +11770,11 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11403,7 +11807,11 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11436,7 +11844,11 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11469,7 +11881,11 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11502,7 +11918,11 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11535,7 +11955,11 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11568,7 +11992,11 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11601,7 +12029,11 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11634,7 +12066,11 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11667,7 +12103,11 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11700,7 +12140,11 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11733,7 +12177,11 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11766,7 +12214,11 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11799,7 +12251,11 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -11832,7 +12288,11 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -11865,7 +12325,11 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -11898,7 +12362,11 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -11931,7 +12399,11 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -11964,7 +12436,11 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -11997,7 +12473,11 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12030,7 +12510,11 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12063,7 +12547,11 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12096,7 +12584,11 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12129,7 +12621,11 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12162,7 +12658,11 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12195,7 +12695,11 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12228,7 +12732,11 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12261,7 +12769,11 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12294,7 +12806,11 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12327,7 +12843,11 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12360,7 +12880,11 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12393,7 +12917,11 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12426,7 +12954,11 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12459,7 +12991,11 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12492,7 +13028,11 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12525,7 +13065,11 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12558,7 +13102,11 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12591,7 +13139,11 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12624,7 +13176,11 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12657,7 +13213,11 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12690,7 +13250,11 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12723,7 +13287,11 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12756,7 +13324,11 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -12789,7 +13361,11 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -12822,7 +13398,11 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -12855,7 +13435,11 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -12884,15 +13468,13 @@
         <v>-94350.84059735888</v>
       </c>
       <c r="H373" t="n">
-        <v>1</v>
-      </c>
-      <c r="I373" t="n">
-        <v>230</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
       <c r="K373" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L373" t="n">
